--- a/test/outputs/wave_eq_1d.xlsx
+++ b/test/outputs/wave_eq_1d.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,64 +494,64 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4">
-        <v>0.08163265306122448</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C4">
-        <v>0.2389535948507063</v>
+        <v>0.2429661616118196</v>
       </c>
       <c r="D4">
-        <v>0.2423284605864743</v>
+        <v>0.2446887493311178</v>
       </c>
       <c r="E4">
-        <v>0.4667422643941939</v>
+        <v>0.4735964234794811</v>
       </c>
       <c r="F4">
-        <v>0.662883234917204</v>
+        <v>0.673590937168154</v>
       </c>
       <c r="G4">
-        <v>0.8187917915832943</v>
+        <v>0.8324420252175114</v>
       </c>
       <c r="H4">
-        <v>0.9249709112784692</v>
+        <v>0.9404379519118375</v>
       </c>
       <c r="I4">
-        <v>0.9749674006719881</v>
+        <v>0.9909799928979161</v>
       </c>
       <c r="J4">
-        <v>0.9657668422470689</v>
+        <v>0.980986353975714</v>
       </c>
       <c r="K4">
-        <v>0.8979780379143677</v>
+        <v>0.9110808009508745</v>
       </c>
       <c r="L4">
-        <v>0.7757956600237708</v>
+        <v>0.7855544536808744</v>
       </c>
       <c r="M4">
-        <v>0.6067433966560637</v>
+        <v>0.6121030832522855</v>
       </c>
       <c r="N4">
-        <v>0.4012133151462384</v>
+        <v>0.4013559938524788</v>
       </c>
       <c r="O4">
-        <v>0.1718296423110503</v>
+        <v>0.1662253290869826</v>
       </c>
       <c r="P4">
-        <v>-0.06732409180586132</v>
+        <v>-0.07888436475214625</v>
       </c>
       <c r="Q4">
-        <v>-0.301567235659617</v>
+        <v>-0.3189579315653779</v>
       </c>
       <c r="R4">
-        <v>-0.5165207443491088</v>
+        <v>-0.5392887751918836</v>
       </c>
       <c r="S4">
-        <v>-0.6989874379761063</v>
+        <v>-0.7263791387200236</v>
       </c>
       <c r="T4">
-        <v>-0.8377599046927209</v>
+        <v>-0.8687663824549764</v>
       </c>
       <c r="U4">
-        <v>-0.9243065922094023</v>
+        <v>-0.9577246796608421</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -559,64 +559,64 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5">
-        <v>0.163265306122449</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C5">
-        <v>0.4549743354913117</v>
+        <v>0.2999752381043507</v>
       </c>
       <c r="D5">
-        <v>0.4617240669628476</v>
+        <v>0.3034204135429472</v>
       </c>
       <c r="E5">
-        <v>0.4375179269453645</v>
+        <v>0.4658457119448639</v>
       </c>
       <c r="F5">
-        <v>0.6172518659813702</v>
+        <v>0.6615096091255224</v>
       </c>
       <c r="G5">
-        <v>0.7603761126997735</v>
+        <v>0.8169878438263072</v>
       </c>
       <c r="H5">
-        <v>0.8582474958279857</v>
+        <v>0.9227944005985734</v>
       </c>
       <c r="I5">
-        <v>0.9049915882156281</v>
+        <v>0.9724835350720059</v>
       </c>
       <c r="J5">
-        <v>0.8978619743084916</v>
+        <v>0.9630442585484348</v>
       </c>
       <c r="K5">
-        <v>0.8374080476017886</v>
+        <v>0.8950845664666158</v>
       </c>
       <c r="L5">
-        <v>0.7274410685294926</v>
+        <v>0.7727941337597823</v>
       </c>
       <c r="M5">
-        <v>0.5748005626887883</v>
+        <v>0.6036877613072161</v>
       </c>
       <c r="N5">
-        <v>0.3889353614047749</v>
+        <v>0.3981452790285294</v>
       </c>
       <c r="O5">
-        <v>0.1813249332320529</v>
+        <v>0.168776071093778</v>
       </c>
       <c r="P5">
-        <v>-0.03522356851710214</v>
+        <v>-0.07035287551333794</v>
       </c>
       <c r="Q5">
-        <v>-0.2473595092031073</v>
+        <v>-0.3045781434303625</v>
       </c>
       <c r="R5">
-        <v>-0.4420062205960227</v>
+        <v>-0.5195375610584568</v>
       </c>
       <c r="S5">
-        <v>-0.6071616513794127</v>
+        <v>-0.7020494305851412</v>
       </c>
       <c r="T5">
-        <v>-0.7326332073081783</v>
+        <v>-0.8409194854164479</v>
       </c>
       <c r="U5">
-        <v>0.1185389588400868</v>
+        <v>-0.6767837437765878</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -624,64 +624,64 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>0.2448979591836735</v>
+        <v>0.125</v>
       </c>
       <c r="C6">
-        <v>0.6479162879113995</v>
+        <v>0.3992184899950261</v>
       </c>
       <c r="D6">
-        <v>0.6580408851187035</v>
+        <v>0.4043862531529208</v>
       </c>
       <c r="E6">
-        <v>0.6146019242923381</v>
+        <v>0.4685239551196522</v>
       </c>
       <c r="F6">
-        <v>0.5438806700844637</v>
+        <v>0.6413357752785117</v>
       </c>
       <c r="G6">
-        <v>0.666209140975064</v>
+        <v>0.7911536501456385</v>
       </c>
       <c r="H6">
-        <v>0.750448514649721</v>
+        <v>0.8932519795685041</v>
       </c>
       <c r="I6">
-        <v>0.7916505729403894</v>
+        <v>0.941437368733073</v>
       </c>
       <c r="J6">
-        <v>0.787497812045173</v>
+        <v>0.9328156401600536</v>
       </c>
       <c r="K6">
-        <v>0.7384446019131305</v>
+        <v>0.8679688024097448</v>
       </c>
       <c r="L6">
-        <v>0.6476886956361582</v>
+        <v>0.7509192318818033</v>
       </c>
       <c r="M6">
-        <v>0.5209748375284258</v>
+        <v>0.5888832616312405</v>
       </c>
       <c r="N6">
-        <v>0.3662424964528696</v>
+        <v>0.3918292625573645</v>
       </c>
       <c r="O6">
-        <v>0.1931392925943299</v>
+        <v>0.1718672702953657</v>
       </c>
       <c r="P6">
-        <v>0.01242990718814184</v>
+        <v>-0.05749247697126121</v>
       </c>
       <c r="Q6">
-        <v>-0.1646633375763289</v>
+        <v>-0.2821666999995169</v>
       </c>
       <c r="R6">
-        <v>-0.3271478587807075</v>
+        <v>-0.488361303492932</v>
       </c>
       <c r="S6">
-        <v>-0.4649340722204605</v>
+        <v>-0.6634158825234161</v>
       </c>
       <c r="T6">
-        <v>0.3362630370815687</v>
+        <v>-0.732879704241478</v>
       </c>
       <c r="U6">
-        <v>0.2280441837333562</v>
+        <v>-0.2623975893550674</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -689,64 +689,64 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>0.3265306122448979</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
-        <v>0.7957093750478593</v>
+        <v>0.5152940949546703</v>
       </c>
       <c r="D7">
-        <v>0.8092088379909312</v>
+        <v>0.5221844458318633</v>
       </c>
       <c r="E7">
-        <v>0.7725484313024517</v>
+        <v>0.5007770103749398</v>
       </c>
       <c r="F7">
-        <v>0.6665243116902028</v>
+        <v>0.6174197614251254</v>
       </c>
       <c r="G7">
-        <v>0.5431407978410084</v>
+        <v>0.7554148652976701</v>
       </c>
       <c r="H7">
-        <v>0.609295201432031</v>
+        <v>0.85234537696276</v>
       </c>
       <c r="I7">
-        <v>0.643053294608364</v>
+        <v>0.8984012019750207</v>
       </c>
       <c r="J7">
-        <v>0.6426616377667224</v>
+        <v>0.8908491679681776</v>
       </c>
       <c r="K7">
-        <v>0.6084494742952168</v>
+        <v>0.8302354879169747</v>
       </c>
       <c r="L7">
-        <v>0.542807411889793</v>
+        <v>0.7203519903769422</v>
       </c>
       <c r="M7">
-        <v>0.450039978190075</v>
+        <v>0.568003686066567</v>
       </c>
       <c r="N7">
-        <v>0.3361010841139079</v>
+        <v>0.3825919014203612</v>
       </c>
       <c r="O7">
-        <v>0.2082285956352898</v>
+        <v>0.1755384997222356</v>
       </c>
       <c r="P7">
-        <v>0.07450039033464054</v>
+        <v>-0.04041356185498976</v>
       </c>
       <c r="Q7">
-        <v>-0.05666091918277145</v>
+        <v>-0.2519805210098567</v>
       </c>
       <c r="R7">
-        <v>-0.1770042711375181</v>
+        <v>-0.4461511777546261</v>
       </c>
       <c r="S7">
-        <v>0.6038696474964287</v>
+        <v>-0.5948077510708488</v>
       </c>
       <c r="T7">
-        <v>0.5301336313111269</v>
+        <v>-0.4845399643465527</v>
       </c>
       <c r="U7">
-        <v>0.232207541136845</v>
+        <v>0.1023481320602667</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -754,64 +754,64 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <v>0.4081632653061224</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C8">
-        <v>0.9016401367175876</v>
+        <v>0.6260362706312035</v>
       </c>
       <c r="D8">
-        <v>0.9185144653964276</v>
+        <v>0.6346492092276947</v>
       </c>
       <c r="E8">
-        <v>0.8702775479837265</v>
+        <v>0.5700547849145299</v>
       </c>
       <c r="F8">
-        <v>0.7799989780886571</v>
+        <v>0.6010081737166917</v>
       </c>
       <c r="G8">
-        <v>0.6129227255328884</v>
+        <v>0.711441976747676</v>
       </c>
       <c r="H8">
-        <v>0.4450082229885852</v>
+        <v>0.8008220346200967</v>
       </c>
       <c r="I8">
-        <v>0.4699422430768531</v>
+        <v>0.8441589087091058</v>
       </c>
       <c r="J8">
-        <v>0.4739472177603355</v>
+        <v>0.8379153673086568</v>
       </c>
       <c r="K8">
-        <v>0.4572043343558183</v>
+        <v>0.7825925683813937</v>
       </c>
       <c r="L8">
-        <v>0.4211513007938467</v>
+        <v>0.6816921204187665</v>
       </c>
       <c r="M8">
-        <v>0.3683926677975731</v>
+        <v>0.5415012449524655</v>
       </c>
       <c r="N8">
-        <v>0.3025388265628107</v>
+        <v>0.3707074473443801</v>
       </c>
       <c r="O8">
-        <v>0.2279835484248441</v>
+        <v>0.1798662869932612</v>
       </c>
       <c r="P8">
-        <v>0.1496336943815433</v>
+        <v>-0.01924516957484758</v>
       </c>
       <c r="Q8">
-        <v>0.07260764942501528</v>
+        <v>-0.2143496315615665</v>
       </c>
       <c r="R8">
-        <v>0.8624341123388993</v>
+        <v>-0.3893137531017425</v>
       </c>
       <c r="S8">
-        <v>0.8506217682192324</v>
+        <v>-0.4573455325229885</v>
       </c>
       <c r="T8">
-        <v>0.5165144969258513</v>
+        <v>-0.1120403795311406</v>
       </c>
       <c r="U8">
-        <v>0.3115079427178151</v>
+        <v>0.2952096393667276</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -819,64 +819,64 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <v>0.4897959183673469</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
-        <v>0.951106389350174</v>
+        <v>0.7200358956090044</v>
       </c>
       <c r="D9">
-        <v>0.9713555837647819</v>
+        <v>0.7303714219247939</v>
       </c>
       <c r="E9">
-        <v>0.9343636299471929</v>
+        <v>0.6655547255404709</v>
       </c>
       <c r="F9">
-        <v>0.8262833388107969</v>
+        <v>0.6068479701380436</v>
       </c>
       <c r="G9">
-        <v>0.6898774926120015</v>
+        <v>0.6642978720983745</v>
       </c>
       <c r="H9">
-        <v>0.4770000952068805</v>
+        <v>0.7398857566988769</v>
       </c>
       <c r="I9">
-        <v>0.2850386628576723</v>
+        <v>0.7797058377603758</v>
       </c>
       <c r="J9">
-        <v>0.2939068206320993</v>
+        <v>0.7749940608822151</v>
       </c>
       <c r="K9">
-        <v>0.2963092706589263</v>
+        <v>0.7259422980027825</v>
       </c>
       <c r="L9">
-        <v>0.2926415329374387</v>
+        <v>0.6357067600940272</v>
       </c>
       <c r="M9">
-        <v>0.2836494883531185</v>
+        <v>0.5099584460310043</v>
       </c>
       <c r="N9">
-        <v>0.2703815398493998</v>
+        <v>0.3565353453507773</v>
       </c>
       <c r="O9">
-        <v>0.2541224145668969</v>
+        <v>0.1849620354907463</v>
       </c>
       <c r="P9">
-        <v>0.2363126730687448</v>
+        <v>0.005866085572959247</v>
       </c>
       <c r="Q9">
-        <v>1.057223618370525</v>
+        <v>-0.1686298938342616</v>
       </c>
       <c r="R9">
-        <v>1.131020287758537</v>
+        <v>-0.3023068456864894</v>
       </c>
       <c r="S9">
-        <v>0.7938469906409145</v>
+        <v>-0.2118733560420322</v>
       </c>
       <c r="T9">
-        <v>0.6394248477965981</v>
+        <v>0.2792593248618421</v>
       </c>
       <c r="U9">
-        <v>0.2977319637184528</v>
+        <v>0.3127716338159691</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -884,64 +884,64 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <v>0.5714285714285714</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="C10">
-        <v>0.9517528876495465</v>
+        <v>0.7967945335297366</v>
       </c>
       <c r="D10">
-        <v>0.9753769477999225</v>
+        <v>0.8088526475648243</v>
       </c>
       <c r="E10">
-        <v>0.9364414198668937</v>
+        <v>0.7645558311315316</v>
       </c>
       <c r="F10">
-        <v>0.8525458610810608</v>
+        <v>0.6442391948757895</v>
       </c>
       <c r="G10">
-        <v>0.700179390688989</v>
+        <v>0.6239170080354377</v>
       </c>
       <c r="H10">
-        <v>0.5375550500519527</v>
+        <v>0.672123712682506</v>
       </c>
       <c r="I10">
-        <v>0.3043441498807702</v>
+        <v>0.7062977579031475</v>
       </c>
       <c r="J10">
-        <v>0.1162865409481279</v>
+        <v>0.7032585590289023</v>
       </c>
       <c r="K10">
-        <v>0.138472997676569</v>
+        <v>0.6613665647464231</v>
       </c>
       <c r="L10">
-        <v>0.1681549398565229</v>
+        <v>0.5833178330637496</v>
       </c>
       <c r="M10">
-        <v>0.2041713269835178</v>
+        <v>0.4740782614047133</v>
       </c>
       <c r="N10">
-        <v>0.2449425461719595</v>
+        <v>0.3405138117581684</v>
       </c>
       <c r="O10">
-        <v>0.2885644503874899</v>
+        <v>0.1909694074080714</v>
       </c>
       <c r="P10">
-        <v>1.150488499602134</v>
+        <v>0.03502225190904559</v>
       </c>
       <c r="Q10">
-        <v>1.323718076504356</v>
+        <v>-0.1096206821798228</v>
       </c>
       <c r="R10">
-        <v>1.009246660234827</v>
+        <v>-0.1554263568854252</v>
       </c>
       <c r="S10">
-        <v>0.9255166716196742</v>
+        <v>0.1383460481104386</v>
       </c>
       <c r="T10">
-        <v>0.5901733914588851</v>
+        <v>0.5573659493102006</v>
       </c>
       <c r="U10">
-        <v>0.3372201631240814</v>
+        <v>0.2454266416965115</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -949,64 +949,64 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <v>0.6530612244897959</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>0.8983712449565423</v>
+        <v>0.8610812110599129</v>
       </c>
       <c r="D11">
-        <v>0.9253701708426862</v>
+        <v>0.8748619128142988</v>
       </c>
       <c r="E11">
-        <v>0.9019303023125296</v>
+        <v>0.8461932983246585</v>
       </c>
       <c r="F11">
-        <v>0.8195833860465155</v>
+        <v>0.7090646106283817</v>
       </c>
       <c r="G11">
-        <v>0.708272834210344</v>
+        <v>0.6030785006364066</v>
       </c>
       <c r="H11">
-        <v>0.5373646629693445</v>
+        <v>0.6030340774415865</v>
       </c>
       <c r="I11">
-        <v>0.3759765120012463</v>
+        <v>0.6257679695562747</v>
       </c>
       <c r="J11">
-        <v>0.152157713126137</v>
+        <v>0.6240733310087615</v>
       </c>
       <c r="K11">
-        <v>-0.003262877983289463</v>
+        <v>0.5901094259011156</v>
       </c>
       <c r="L11">
-        <v>0.05885579575134634</v>
+        <v>0.5255870043993497</v>
       </c>
       <c r="M11">
-        <v>0.1385436211218712</v>
+        <v>0.434672425480954</v>
       </c>
       <c r="N11">
-        <v>0.231683245963102</v>
+        <v>0.3231521915546512</v>
       </c>
       <c r="O11">
-        <v>1.13019466691796</v>
+        <v>0.19812847536306</v>
       </c>
       <c r="P11">
-        <v>1.403090088124963</v>
+        <v>0.0698792599607035</v>
       </c>
       <c r="Q11">
-        <v>1.124677787426118</v>
+        <v>-0.0226372776769511</v>
       </c>
       <c r="R11">
-        <v>1.122327130864364</v>
+        <v>0.08059958618243666</v>
       </c>
       <c r="S11">
-        <v>0.8219584085076495</v>
+        <v>0.5233129678029821</v>
       </c>
       <c r="T11">
-        <v>0.6313145943302121</v>
+        <v>0.6528154253523993</v>
       </c>
       <c r="U11">
-        <v>0.3046914925127522</v>
+        <v>0.1979477839825968</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1014,64 +1014,64 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
-        <v>0.7346938775510203</v>
+        <v>0.375</v>
       </c>
       <c r="C12">
-        <v>0.8027534628725354</v>
+        <v>0.9164229370198953</v>
       </c>
       <c r="D12">
-        <v>0.8331272544944472</v>
+        <v>0.9319262264935795</v>
       </c>
       <c r="E12">
-        <v>0.8171909995819692</v>
+        <v>0.9022208686689015</v>
       </c>
       <c r="F12">
-        <v>0.7658379428450319</v>
+        <v>0.7838274592015591</v>
       </c>
       <c r="G12">
-        <v>0.6659767874958047</v>
+        <v>0.6112664959065874</v>
       </c>
       <c r="H12">
-        <v>0.5544016954797952</v>
+        <v>0.5419442609122941</v>
       </c>
       <c r="I12">
-        <v>0.3949414491577143</v>
+        <v>0.5413388665761328</v>
       </c>
       <c r="J12">
-        <v>0.2631107412618888</v>
+        <v>0.5390824325506006</v>
       </c>
       <c r="K12">
-        <v>0.0756698196246683</v>
+        <v>0.5135613123177006</v>
       </c>
       <c r="L12">
-        <v>-0.02448928951350968</v>
+        <v>0.4636984675712997</v>
       </c>
       <c r="M12">
-        <v>0.09504349028502167</v>
+        <v>0.3926480459372405</v>
       </c>
       <c r="N12">
-        <v>1.012627453429825</v>
+        <v>0.3050392956355182</v>
       </c>
       <c r="O12">
-        <v>1.371360548746088</v>
+        <v>0.2072035686532338</v>
       </c>
       <c r="P12">
-        <v>1.127792785639238</v>
+        <v>0.1165958375718469</v>
       </c>
       <c r="Q12">
-        <v>1.204313239539111</v>
+        <v>0.1168847801780604</v>
       </c>
       <c r="R12">
-        <v>0.9546087946987851</v>
+        <v>0.4056971734571576</v>
       </c>
       <c r="S12">
-        <v>0.8351144588995807</v>
+        <v>0.8316357395586114</v>
       </c>
       <c r="T12">
-        <v>0.5497299602088117</v>
+        <v>0.6027826207156475</v>
       </c>
       <c r="U12">
-        <v>0.3033895105612234</v>
+        <v>0.2186366053406598</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1079,64 +1079,64 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <v>0.8163265306122448</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="C13">
-        <v>0.6689032464726891</v>
+        <v>0.9621149831235883</v>
       </c>
       <c r="D13">
-        <v>0.702651903830369</v>
+        <v>0.9793408603165707</v>
       </c>
       <c r="E13">
-        <v>0.7050788243896235</v>
+        <v>0.9376514475195254</v>
       </c>
       <c r="F13">
-        <v>0.6721975138776629</v>
+        <v>0.8468520687076628</v>
       </c>
       <c r="G13">
-        <v>0.6198833652323158</v>
+        <v>0.6477787892156951</v>
       </c>
       <c r="H13">
-        <v>0.532611156735013</v>
+        <v>0.500500362167454</v>
       </c>
       <c r="I13">
-        <v>0.4489037197442299</v>
+        <v>0.4587714021597049</v>
       </c>
       <c r="J13">
-        <v>0.3281343045000781</v>
+        <v>0.4505458562704143</v>
       </c>
       <c r="K13">
-        <v>0.2481518203041117</v>
+        <v>0.4332710078751663</v>
       </c>
       <c r="L13">
-        <v>0.1149643006156865</v>
+        <v>0.3989408934430984</v>
       </c>
       <c r="M13">
-        <v>0.8382561747421478</v>
+        <v>0.3489970737119864</v>
       </c>
       <c r="N13">
-        <v>1.25783380498671</v>
+        <v>0.2869687310176441</v>
       </c>
       <c r="O13">
-        <v>1.034578197312098</v>
+        <v>0.2208084856397222</v>
       </c>
       <c r="P13">
-        <v>1.173748695082509</v>
+        <v>0.18913753993753</v>
       </c>
       <c r="Q13">
-        <v>0.9753304681117081</v>
+        <v>0.3324589875247533</v>
       </c>
       <c r="R13">
-        <v>0.9232598899440115</v>
+        <v>0.7684353527891281</v>
       </c>
       <c r="S13">
-        <v>0.6960926789356042</v>
+        <v>0.976525891117159</v>
       </c>
       <c r="T13">
-        <v>0.5157721760884095</v>
+        <v>0.5161796766723826</v>
       </c>
       <c r="U13">
-        <v>0.2560799774747214</v>
+        <v>0.2842317408333536</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1144,64 +1144,64 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>0.8979591836734693</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C14">
-        <v>0.5114110228262447</v>
+        <v>0.9946728170047555</v>
       </c>
       <c r="D14">
-        <v>0.5485345459196926</v>
+        <v>1.013621281917036</v>
       </c>
       <c r="E14">
-        <v>0.5656615905749963</v>
+        <v>0.9625278335609061</v>
       </c>
       <c r="F14">
-        <v>0.5669458237687161</v>
+        <v>0.8843871667533613</v>
       </c>
       <c r="G14">
-        <v>0.5472609221089441</v>
+        <v>0.6995365175879501</v>
       </c>
       <c r="H14">
-        <v>0.5220498686147648</v>
+        <v>0.4880369201145406</v>
       </c>
       <c r="I14">
-        <v>0.4746968869909952</v>
+        <v>0.3869704903298283</v>
       </c>
       <c r="J14">
-        <v>0.4410629133471952</v>
+        <v>0.3620479170146815</v>
       </c>
       <c r="K14">
-        <v>0.3771050588538719</v>
+        <v>0.3510601491140878</v>
       </c>
       <c r="L14">
-        <v>1.097753638260735</v>
+        <v>0.3326980770139589</v>
       </c>
       <c r="M14">
-        <v>1.294092100601582</v>
+        <v>0.3048212224638652</v>
       </c>
       <c r="N14">
-        <v>0.8852602370481572</v>
+        <v>0.270451422409897</v>
       </c>
       <c r="O14">
-        <v>1.059998957876051</v>
+        <v>0.245826875569393</v>
       </c>
       <c r="P14">
-        <v>0.8996997459465214</v>
+        <v>0.3088186129284636</v>
       </c>
       <c r="Q14">
-        <v>0.8981468486834859</v>
+        <v>0.6250917150629232</v>
       </c>
       <c r="R14">
-        <v>0.7304715068684411</v>
+        <v>1.076078533836638</v>
       </c>
       <c r="S14">
-        <v>0.6120294147534419</v>
+        <v>0.9544731031326871</v>
       </c>
       <c r="T14">
-        <v>0.4137905325055788</v>
+        <v>0.4903953342580712</v>
       </c>
       <c r="U14">
-        <v>0.2216609020971727</v>
+        <v>0.3393800749086388</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1209,64 +1209,64 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
-        <v>0.9795918367346939</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>0.3412982417496825</v>
+        <v>1.011267235719583</v>
       </c>
       <c r="D15">
-        <v>0.3817966305788984</v>
+        <v>1.031938288351162</v>
       </c>
       <c r="E15">
-        <v>0.4178777201598643</v>
+        <v>0.9824452816888706</v>
       </c>
       <c r="F15">
-        <v>0.4485331535670322</v>
+        <v>0.8968188962260609</v>
       </c>
       <c r="G15">
-        <v>0.4767284006016186</v>
+        <v>0.7466050566678498</v>
       </c>
       <c r="H15">
-        <v>0.4975753383701867</v>
+        <v>0.5057761062248857</v>
       </c>
       <c r="I15">
-        <v>0.5217172083500563</v>
+        <v>0.3367429497918301</v>
       </c>
       <c r="J15">
-        <v>0.5324665805089416</v>
+        <v>0.2794007084876802</v>
       </c>
       <c r="K15">
-        <v>1.279035623102223</v>
+        <v>0.2693596054202136</v>
       </c>
       <c r="L15">
-        <v>1.577842812611223</v>
+        <v>0.2664884363415367</v>
       </c>
       <c r="M15">
-        <v>1.168557526306098</v>
+        <v>0.2615074561850353</v>
       </c>
       <c r="N15">
-        <v>1.090146769017925</v>
+        <v>0.2589759864000176</v>
       </c>
       <c r="O15">
-        <v>0.7676081572776302</v>
+        <v>0.2957123332414804</v>
       </c>
       <c r="P15">
-        <v>0.7892495399442158</v>
+        <v>0.4954804091825258</v>
       </c>
       <c r="Q15">
-        <v>0.6679946788723962</v>
+        <v>0.9546342290608996</v>
       </c>
       <c r="R15">
-        <v>0.5947025692570649</v>
+        <v>1.241049342184845</v>
       </c>
       <c r="S15">
-        <v>0.4592756120649519</v>
+        <v>0.8482095810432221</v>
       </c>
       <c r="T15">
-        <v>0.3268956301997775</v>
+        <v>0.5468850969305606</v>
       </c>
       <c r="U15">
-        <v>0.167614358535279</v>
+        <v>0.3494804478441713</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1274,64 +1274,64 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
-        <v>1.061224489795918</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>0.1737341391066577</v>
+        <v>1.011863672220003</v>
       </c>
       <c r="D16">
-        <v>0.2176073936716416</v>
+        <v>1.03425731257088</v>
       </c>
       <c r="E16">
-        <v>0.2718488007989113</v>
+        <v>0.9950893716471537</v>
       </c>
       <c r="F16">
-        <v>0.3349525065361939</v>
+        <v>0.8948333315680685</v>
       </c>
       <c r="G16">
-        <v>0.4064460032382604</v>
+        <v>0.7727268377309412</v>
       </c>
       <c r="H16">
-        <v>0.4839027449749719</v>
+        <v>0.5438890535231884</v>
       </c>
       <c r="I16">
-        <v>0.5634450269581918</v>
+        <v>0.3170951706061496</v>
       </c>
       <c r="J16">
-        <v>1.349018235684528</v>
+        <v>0.2110537942247775</v>
       </c>
       <c r="K16">
-        <v>1.752601333381501</v>
+        <v>0.1918363532312525</v>
       </c>
       <c r="L16">
-        <v>1.375961485040001</v>
+        <v>0.2021632868568734</v>
       </c>
       <c r="M16">
-        <v>1.373895611787291</v>
+        <v>0.2212950086772631</v>
       </c>
       <c r="N16">
-        <v>1.065559227517824</v>
+        <v>0.2600054886363733</v>
       </c>
       <c r="O16">
-        <v>0.8192931156840345</v>
+        <v>0.3895799319558864</v>
       </c>
       <c r="P16">
-        <v>0.5482066540189251</v>
+        <v>0.7506352820632964</v>
       </c>
       <c r="Q16">
-        <v>0.4933687884509824</v>
+        <v>1.242972482685397</v>
       </c>
       <c r="R16">
-        <v>0.40721415326447</v>
+        <v>1.236221146486277</v>
       </c>
       <c r="S16">
-        <v>0.3183911209023145</v>
+        <v>0.7679007922622116</v>
       </c>
       <c r="T16">
-        <v>0.2227177626069853</v>
+        <v>0.6324967342528391</v>
       </c>
       <c r="U16">
-        <v>0.1144073055886618</v>
+        <v>0.3237052911354409</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1339,64 +1339,64 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17">
-        <v>1.142857142857143</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="C17">
-        <v>0.0231155536774899</v>
+        <v>0.9986432416234279</v>
       </c>
       <c r="D17">
-        <v>0.07036367397824178</v>
+        <v>1.022759469693603</v>
       </c>
       <c r="E17">
-        <v>0.1414719209116367</v>
+        <v>0.994116298309397</v>
       </c>
       <c r="F17">
-        <v>0.2367352606482981</v>
+        <v>0.8892730172855707</v>
       </c>
       <c r="G17">
-        <v>0.3493301512250859</v>
+        <v>0.7737959207833462</v>
       </c>
       <c r="H17">
-        <v>0.4797806430620438</v>
+        <v>0.5846463562053597</v>
       </c>
       <c r="I17">
-        <v>1.301035184867742</v>
+        <v>0.3303086389879077</v>
       </c>
       <c r="J17">
-        <v>1.801060483860439</v>
+        <v>0.1670210740888519</v>
       </c>
       <c r="K17">
-        <v>1.473632603720259</v>
+        <v>0.124146853551401</v>
       </c>
       <c r="L17">
-        <v>1.547290608535683</v>
+        <v>0.142466369357753</v>
       </c>
       <c r="M17">
-        <v>1.288931369874777</v>
+        <v>0.1885033640033157</v>
       </c>
       <c r="N17">
-        <v>1.109814301243536</v>
+        <v>0.2866097605374655</v>
       </c>
       <c r="O17">
-        <v>0.8552281787850079</v>
+        <v>0.5447771944226656</v>
       </c>
       <c r="P17">
-        <v>0.5264799993978893</v>
+        <v>1.041716181943338</v>
       </c>
       <c r="Q17">
-        <v>0.2968278025155671</v>
+        <v>1.407195214196967</v>
       </c>
       <c r="R17">
-        <v>0.2257987928172293</v>
+        <v>1.116834261382572</v>
       </c>
       <c r="S17">
-        <v>0.1795535457986639</v>
+        <v>0.7748083253357886</v>
       </c>
       <c r="T17">
-        <v>0.1149823109803816</v>
+        <v>0.6767699918324016</v>
       </c>
       <c r="U17">
-        <v>0.06403931801130493</v>
+        <v>0.2968445296737485</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1404,64 +1404,64 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18">
-        <v>1.224489795918367</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>-0.09742029216765978</v>
+        <v>0.9738379109079989</v>
       </c>
       <c r="D18">
-        <v>-0.04679730613113992</v>
+        <v>0.9996767266974725</v>
       </c>
       <c r="E18">
-        <v>0.04162594480322255</v>
+        <v>0.9756819983085564</v>
       </c>
       <c r="F18">
-        <v>0.1625562831513946</v>
+        <v>0.8829766074260158</v>
       </c>
       <c r="G18">
-        <v>0.3169185376392933</v>
+        <v>0.7581944475207435</v>
       </c>
       <c r="H18">
-        <v>1.156454104432778</v>
+        <v>0.6109591739637055</v>
       </c>
       <c r="I18">
-        <v>1.733110949217009</v>
+        <v>0.3688218975870249</v>
       </c>
       <c r="J18">
-        <v>1.454297660104554</v>
+        <v>0.1558106392564164</v>
       </c>
       <c r="K18">
-        <v>1.593479807734479</v>
+        <v>0.07430388088190457</v>
       </c>
       <c r="L18">
-        <v>1.402984346136947</v>
+        <v>0.09217360517906655</v>
       </c>
       <c r="M18">
-        <v>1.289311547404878</v>
+        <v>0.1713541279600448</v>
       </c>
       <c r="N18">
-        <v>1.088717325690677</v>
+        <v>0.3563295532999018</v>
       </c>
       <c r="O18">
-        <v>0.8271792148439967</v>
+        <v>0.7631224103376519</v>
       </c>
       <c r="P18">
-        <v>0.6097313276026149</v>
+        <v>1.30196749021901</v>
       </c>
       <c r="Q18">
-        <v>0.2633586107291494</v>
+        <v>1.407460637845392</v>
       </c>
       <c r="R18">
-        <v>0.07705725569360025</v>
+        <v>0.9869426155231167</v>
       </c>
       <c r="S18">
-        <v>0.03141575849378434</v>
+        <v>0.8463112341468955</v>
       </c>
       <c r="T18">
-        <v>0.02912646866722548</v>
+        <v>0.6521133669134622</v>
       </c>
       <c r="U18">
-        <v>0.009521798604938621</v>
+        <v>0.2937436253872405</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1469,64 +1469,64 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19">
-        <v>1.306122448979592</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>-0.1742982601237504</v>
+        <v>0.9381875417156798</v>
       </c>
       <c r="D19">
-        <v>-0.1203004083514625</v>
+        <v>0.9657489452244516</v>
       </c>
       <c r="E19">
-        <v>-0.01957349294598488</v>
+        <v>0.9416821043414759</v>
       </c>
       <c r="F19">
-        <v>0.1280713279767142</v>
+        <v>0.8704895518946761</v>
       </c>
       <c r="G19">
-        <v>0.9596133833575787</v>
+        <v>0.7389167822482001</v>
       </c>
       <c r="H19">
-        <v>1.584281833043273</v>
+        <v>0.6152667144400769</v>
       </c>
       <c r="I19">
-        <v>1.338860627293142</v>
+        <v>0.4168918350514919</v>
       </c>
       <c r="J19">
-        <v>1.522617218731683</v>
+        <v>0.1802182408509525</v>
       </c>
       <c r="K19">
-        <v>1.399754286359558</v>
+        <v>0.05198029329629615</v>
       </c>
       <c r="L19">
-        <v>1.341445684807666</v>
+        <v>0.05979001811510692</v>
       </c>
       <c r="M19">
-        <v>1.212959163544616</v>
+        <v>0.1834624884702273</v>
       </c>
       <c r="N19">
-        <v>1.016305191059508</v>
+        <v>0.4848174000050543</v>
       </c>
       <c r="O19">
-        <v>0.8502812817609696</v>
+        <v>1.017483444396274</v>
       </c>
       <c r="P19">
-        <v>0.5755677344939526</v>
+        <v>1.454693184767898</v>
       </c>
       <c r="Q19">
-        <v>0.3942321778192537</v>
+        <v>1.276702844345235</v>
       </c>
       <c r="R19">
-        <v>0.07379179106856</v>
+        <v>0.9307047961227604</v>
       </c>
       <c r="S19">
-        <v>-0.06605172589796836</v>
+        <v>0.9068116536611086</v>
       </c>
       <c r="T19">
-        <v>-0.06516276642714355</v>
+        <v>0.5883821480175799</v>
       </c>
       <c r="U19">
-        <v>-0.02670489107323397</v>
+        <v>0.3096783536844627</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1534,64 +1534,64 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20">
-        <v>1.387755102040816</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="C20">
-        <v>-0.1988269019959359</v>
+        <v>0.8912333822487378</v>
       </c>
       <c r="D20">
-        <v>-0.1414541844878801</v>
+        <v>0.920517373476808</v>
       </c>
       <c r="E20">
-        <v>-0.02810308236553744</v>
+        <v>0.8975919262759794</v>
       </c>
       <c r="F20">
-        <v>0.7672712648404814</v>
+        <v>0.8446155216304728</v>
       </c>
       <c r="G20">
-        <v>1.407867207016953</v>
+        <v>0.7236647685665507</v>
       </c>
       <c r="H20">
-        <v>1.171342557936718</v>
+        <v>0.602678174090111</v>
       </c>
       <c r="I20">
-        <v>1.370396904880672</v>
+        <v>0.4573792507720076</v>
       </c>
       <c r="J20">
-        <v>1.299640549070757</v>
+        <v>0.234365859315411</v>
       </c>
       <c r="K20">
-        <v>1.276637335169526</v>
+        <v>0.06646605381345637</v>
       </c>
       <c r="L20">
-        <v>1.219293457768308</v>
+        <v>0.05914392925824501</v>
       </c>
       <c r="M20">
-        <v>1.078050094258862</v>
+        <v>0.2430568532654623</v>
       </c>
       <c r="N20">
-        <v>0.9817257604328331</v>
+        <v>0.6744554292111055</v>
       </c>
       <c r="O20">
-        <v>0.7754973749208156</v>
+        <v>1.250056161544734</v>
       </c>
       <c r="P20">
-        <v>0.6405491591665455</v>
+        <v>1.453682621089592</v>
       </c>
       <c r="Q20">
-        <v>0.3977040344591562</v>
+        <v>1.105800176242464</v>
       </c>
       <c r="R20">
-        <v>0.2547962153863862</v>
+        <v>0.9588073324238179</v>
       </c>
       <c r="S20">
-        <v>-0.01806697679321188</v>
+        <v>0.8950822546153132</v>
       </c>
       <c r="T20">
-        <v>-0.1145278015467495</v>
+        <v>0.5373183536458114</v>
       </c>
       <c r="U20">
-        <v>-0.06606574742395223</v>
+        <v>0.3203355573206377</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -1599,64 +1599,64 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21">
-        <v>1.469387755102041</v>
+        <v>0.75</v>
       </c>
       <c r="C21">
-        <v>-0.1620014320753078</v>
+        <v>0.8328249619512191</v>
       </c>
       <c r="D21">
-        <v>-0.1012538488314839</v>
+        <v>0.8638315408985876</v>
       </c>
       <c r="E21">
-        <v>0.6350695450803355</v>
+        <v>0.8477416957287751</v>
       </c>
       <c r="F21">
-        <v>1.262644930644006</v>
+        <v>0.8034174909329583</v>
       </c>
       <c r="G21">
-        <v>1.008330341810004</v>
+        <v>0.7104060774674418</v>
       </c>
       <c r="H21">
-        <v>1.190253375971683</v>
+        <v>0.5859813175006502</v>
       </c>
       <c r="I21">
-        <v>1.146335281677756</v>
+        <v>0.4802582712453183</v>
       </c>
       <c r="J21">
-        <v>1.130712652079959</v>
+        <v>0.3046937658574371</v>
       </c>
       <c r="K21">
-        <v>1.127653304148544</v>
+        <v>0.1239688970874172</v>
       </c>
       <c r="L21">
-        <v>1.023064564668621</v>
+        <v>0.1093518014678076</v>
       </c>
       <c r="M21">
-        <v>0.9947167481055927</v>
+        <v>0.367837426678264</v>
       </c>
       <c r="N21">
-        <v>0.8478938287371505</v>
+        <v>0.9030955874847426</v>
       </c>
       <c r="O21">
-        <v>0.7781396078312339</v>
+        <v>1.39059217662714</v>
       </c>
       <c r="P21">
-        <v>0.6083729812805696</v>
+        <v>1.31507889361903</v>
       </c>
       <c r="Q21">
-        <v>0.5066553925302755</v>
+        <v>0.9883987269576023</v>
       </c>
       <c r="R21">
-        <v>0.3172437654587361</v>
+        <v>1.010566745762665</v>
       </c>
       <c r="S21">
-        <v>0.2100119649104749</v>
+        <v>0.811215556994522</v>
       </c>
       <c r="T21">
-        <v>-0.01445654233757973</v>
+        <v>0.5245496461800809</v>
       </c>
       <c r="U21">
-        <v>-0.08007600759077625</v>
+        <v>0.3073006902995288</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1664,64 +1664,64 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22">
-        <v>1.551020408163265</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C22">
-        <v>0.540106088816124</v>
+        <v>0.764257919245752</v>
       </c>
       <c r="D22">
-        <v>0.6042285377957158</v>
+        <v>0.7969870859124187</v>
       </c>
       <c r="E22">
-        <v>1.199139120629497</v>
+        <v>0.792587211509597</v>
       </c>
       <c r="F22">
-        <v>0.9054280978335741</v>
+        <v>0.7517850330390665</v>
       </c>
       <c r="G22">
-        <v>1.041128464476669</v>
+        <v>0.6911618143032248</v>
       </c>
       <c r="H22">
-        <v>0.9962624584461338</v>
+        <v>0.5760857160902434</v>
       </c>
       <c r="I22">
-        <v>0.9571904522296926</v>
+        <v>0.4875122431816218</v>
       </c>
       <c r="J22">
-        <v>0.9814673070388134</v>
+        <v>0.3758776429897329</v>
       </c>
       <c r="K22">
-        <v>0.8872377521382619</v>
+        <v>0.2258725800186099</v>
       </c>
       <c r="L22">
-        <v>0.9087706576237303</v>
+        <v>0.23118050087296</v>
       </c>
       <c r="M22">
-        <v>0.8036061484361184</v>
+        <v>0.5652167154658494</v>
       </c>
       <c r="N22">
-        <v>0.7969617912787843</v>
+        <v>1.121964053976005</v>
       </c>
       <c r="O22">
-        <v>0.6911439930476801</v>
+        <v>1.390551751201241</v>
       </c>
       <c r="P22">
-        <v>0.6504326259224124</v>
+        <v>1.115121635265678</v>
       </c>
       <c r="Q22">
-        <v>0.5380869923577009</v>
+        <v>0.9620405550405708</v>
       </c>
       <c r="R22">
-        <v>0.4677945089104956</v>
+        <v>1.008553555997151</v>
       </c>
       <c r="S22">
-        <v>0.3318508812514572</v>
+        <v>0.707674782851386</v>
       </c>
       <c r="T22">
-        <v>0.2485066613508565</v>
+        <v>0.5319207494983897</v>
       </c>
       <c r="U22">
-        <v>0.05599897284707947</v>
+        <v>0.2739180707344516</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1729,64 +1729,64 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23">
-        <v>1.63265306122449</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="C23">
-        <v>1.7663581661449</v>
+        <v>0.688060727257174</v>
       </c>
       <c r="D23">
-        <v>1.83385548086026</v>
+        <v>0.722512481643139</v>
       </c>
       <c r="E23">
-        <v>0.9039241576920179</v>
+        <v>0.7300490154068366</v>
       </c>
       <c r="F23">
-        <v>0.9737534113184443</v>
+        <v>0.6970405619671644</v>
       </c>
       <c r="G23">
-        <v>0.9050105713975702</v>
+        <v>0.6600708786211809</v>
       </c>
       <c r="H23">
-        <v>0.8151061437666082</v>
+        <v>0.5749594421318177</v>
       </c>
       <c r="I23">
-        <v>0.8370771588724548</v>
+        <v>0.4910053170555222</v>
       </c>
       <c r="J23">
-        <v>0.7240868600088117</v>
+        <v>0.4394665339251405</v>
       </c>
       <c r="K23">
-        <v>0.7671227091746546</v>
+        <v>0.369416146332859</v>
       </c>
       <c r="L23">
-        <v>0.6785273911608112</v>
+        <v>0.4387338811283944</v>
       </c>
       <c r="M23">
-        <v>0.7161477650805709</v>
+        <v>0.8214427051537072</v>
       </c>
       <c r="N23">
-        <v>0.6570543973917625</v>
+        <v>1.269988634156059</v>
       </c>
       <c r="O23">
-        <v>0.6753634592052918</v>
+        <v>1.254730865361844</v>
       </c>
       <c r="P23">
-        <v>0.6304776935197897</v>
+        <v>0.9486335128329658</v>
       </c>
       <c r="Q23">
-        <v>0.6183653836187885</v>
+        <v>0.9887945654496894</v>
       </c>
       <c r="R23">
-        <v>0.5622489551999978</v>
+        <v>0.9207732284289821</v>
       </c>
       <c r="S23">
-        <v>0.5128861119935256</v>
+        <v>0.6383758411698806</v>
       </c>
       <c r="T23">
-        <v>0.4130137311288439</v>
+        <v>0.5208859264611464</v>
       </c>
       <c r="U23">
-        <v>0.3330942363240538</v>
+        <v>0.2389819419179416</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -1794,64 +1794,64 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24">
-        <v>1.714285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="C24">
-        <v>2.02715339230459</v>
+        <v>0.6068245478027843</v>
       </c>
       <c r="D24">
-        <v>2.098025572755718</v>
+        <v>0.6429988899080474</v>
       </c>
       <c r="E24">
-        <v>1.590063503483306</v>
+        <v>0.6590700426310881</v>
       </c>
       <c r="F24">
-        <v>0.9139674084412006</v>
+        <v>0.643203969447768</v>
       </c>
       <c r="G24">
-        <v>0.755319539186813</v>
+        <v>0.6187259230000803</v>
       </c>
       <c r="H24">
-        <v>0.7501437877414576</v>
+        <v>0.5761539178260064</v>
       </c>
       <c r="I24">
-        <v>0.5926486820744574</v>
+        <v>0.5048105703529131</v>
       </c>
       <c r="J24">
-        <v>0.6261095588023222</v>
+        <v>0.5004865679049696</v>
       </c>
       <c r="K24">
-        <v>0.5261044118704397</v>
+        <v>0.550531631501479</v>
       </c>
       <c r="L24">
-        <v>0.5787866618754072</v>
+        <v>0.7280963444263742</v>
       </c>
       <c r="M24">
-        <v>0.5419668914407929</v>
+        <v>1.096656037616729</v>
       </c>
       <c r="N24">
-        <v>0.6002042186395008</v>
+        <v>1.302541848226712</v>
       </c>
       <c r="O24">
-        <v>0.6056539400456407</v>
+        <v>1.047396001050764</v>
       </c>
       <c r="P24">
-        <v>0.6501873478098924</v>
+        <v>0.8724471502512657</v>
       </c>
       <c r="Q24">
-        <v>0.6635148022285878</v>
+        <v>0.9904755789209628</v>
       </c>
       <c r="R24">
-        <v>0.6710853406564922</v>
+        <v>0.7809747466800564</v>
       </c>
       <c r="S24">
-        <v>0.6525157040830585</v>
+        <v>0.6133913367279643</v>
       </c>
       <c r="T24">
-        <v>0.6048170757513672</v>
+        <v>0.4705496569902723</v>
       </c>
       <c r="U24">
-        <v>0.3712733632479797</v>
+        <v>0.2174028371014585</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -1859,64 +1859,64 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25">
-        <v>1.795918367346939</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C25">
-        <v>1.730498928592425</v>
+        <v>0.5222767936815342</v>
       </c>
       <c r="D25">
-        <v>1.80474597477932</v>
+        <v>0.5601737235060956</v>
       </c>
       <c r="E25">
-        <v>2.119164165164051</v>
+        <v>0.5818312923082273</v>
       </c>
       <c r="F25">
-        <v>1.365487206414235</v>
+        <v>0.5890869909370018</v>
       </c>
       <c r="G25">
-        <v>0.7622448713529466</v>
+        <v>0.5747477147076382</v>
       </c>
       <c r="H25">
-        <v>0.5438199964632984</v>
+        <v>0.5720571736019704</v>
       </c>
       <c r="I25">
-        <v>0.5415403795638558</v>
+        <v>0.5377013096202299</v>
       </c>
       <c r="J25">
-        <v>0.4053083285768979</v>
+        <v>0.5774289587837604</v>
       </c>
       <c r="K25">
-        <v>0.4412578338137972</v>
+        <v>0.766192082742317</v>
       </c>
       <c r="L25">
-        <v>0.3992190336575274</v>
+        <v>1.068166528754284</v>
       </c>
       <c r="M25">
-        <v>0.4679183740632669</v>
+        <v>1.332806735895471</v>
       </c>
       <c r="N25">
-        <v>0.4994373659641746</v>
+        <v>1.220304320341822</v>
       </c>
       <c r="O25">
-        <v>0.5816302217697698</v>
+        <v>0.8627437268676749</v>
       </c>
       <c r="P25">
-        <v>0.6471164362918977</v>
+        <v>0.8730063225187048</v>
       </c>
       <c r="Q25">
-        <v>0.7107296413987525</v>
+        <v>0.9113554433322186</v>
       </c>
       <c r="R25">
-        <v>0.7621522702087535</v>
+        <v>0.6542135233722401</v>
       </c>
       <c r="S25">
-        <v>0.7714886347318245</v>
+        <v>0.5970988470253211</v>
       </c>
       <c r="T25">
-        <v>0.6232272187128671</v>
+        <v>0.3946232682864477</v>
       </c>
       <c r="U25">
-        <v>0.2829699553698174</v>
+        <v>0.2073285196457193</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -1924,64 +1924,64 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26">
-        <v>1.877551020408163</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="C26">
-        <v>1.674693656627259</v>
+        <v>0.4353963084773897</v>
       </c>
       <c r="D26">
-        <v>1.752315568549923</v>
+        <v>0.4750158260212494</v>
       </c>
       <c r="E26">
-        <v>1.613996154716931</v>
+        <v>0.5027810417526387</v>
       </c>
       <c r="F26">
-        <v>1.970553732686399</v>
+        <v>0.5313857581611449</v>
       </c>
       <c r="G26">
-        <v>1.151256786378535</v>
+        <v>0.5356799349802814</v>
       </c>
       <c r="H26">
-        <v>0.555252061336579</v>
+        <v>0.5619229285223467</v>
       </c>
       <c r="I26">
-        <v>0.3670142240662282</v>
+        <v>0.5914579296101452</v>
       </c>
       <c r="J26">
-        <v>0.3595584565770737</v>
+        <v>0.6943178658361403</v>
       </c>
       <c r="K26">
-        <v>0.2876840573829266</v>
+        <v>1.012746630545334</v>
       </c>
       <c r="L26">
-        <v>0.3349451165656326</v>
+        <v>1.400943158169361</v>
       </c>
       <c r="M26">
-        <v>0.3650431102782133</v>
+        <v>1.475411608366472</v>
       </c>
       <c r="N26">
-        <v>0.4555320217189155</v>
+        <v>1.078098153300929</v>
       </c>
       <c r="O26">
-        <v>0.5488394184674816</v>
+        <v>0.7737903266694236</v>
       </c>
       <c r="P26">
-        <v>0.6497802911148769</v>
+        <v>0.8830195631158335</v>
       </c>
       <c r="Q26">
-        <v>0.7536594391500265</v>
+        <v>0.7595440218378605</v>
       </c>
       <c r="R26">
-        <v>0.8198246636486904</v>
+        <v>0.5806132840534376</v>
       </c>
       <c r="S26">
-        <v>0.7444989529192232</v>
+        <v>0.5462749225816532</v>
       </c>
       <c r="T26">
-        <v>0.4621633278265787</v>
+        <v>0.3249448136484027</v>
       </c>
       <c r="U26">
-        <v>0.2581857510690871</v>
+        <v>0.1945665128422571</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -1989,64 +1989,64 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27">
-        <v>1.959183673469388</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1.41514618741216</v>
+        <v>0.3472943929997566</v>
       </c>
       <c r="D27">
-        <v>1.496142965070592</v>
+        <v>0.3886364982629145</v>
       </c>
       <c r="E27">
-        <v>1.598016265502498</v>
+        <v>0.4257852224261582</v>
       </c>
       <c r="F27">
-        <v>1.436378544243489</v>
+        <v>0.4694040070238714</v>
       </c>
       <c r="G27">
-        <v>1.764886448157479</v>
+        <v>0.5041293695327689</v>
       </c>
       <c r="H27">
-        <v>0.971186510154519</v>
+        <v>0.5546173553394086</v>
       </c>
       <c r="I27">
-        <v>0.3758121576249713</v>
+        <v>0.6658748616212926</v>
       </c>
       <c r="J27">
-        <v>0.2581958238089424</v>
+        <v>0.8680339524826957</v>
       </c>
       <c r="K27">
-        <v>0.2574757019489431</v>
+        <v>1.279146493821326</v>
       </c>
       <c r="L27">
-        <v>0.2612421257570703</v>
+        <v>1.656220175746363</v>
       </c>
       <c r="M27">
-        <v>0.3283875787673129</v>
+        <v>1.500417892958759</v>
       </c>
       <c r="N27">
-        <v>0.4217792306503644</v>
+        <v>0.9617500679035763</v>
       </c>
       <c r="O27">
-        <v>0.530939581150193</v>
+        <v>0.7921216636299544</v>
       </c>
       <c r="P27">
-        <v>0.6627983178165258</v>
+        <v>0.8362374400641447</v>
       </c>
       <c r="Q27">
-        <v>0.767352739355083</v>
+        <v>0.5959713030924293</v>
       </c>
       <c r="R27">
-        <v>0.7471346004919237</v>
+        <v>0.5460711556457049</v>
       </c>
       <c r="S27">
-        <v>0.5233058919377387</v>
+        <v>0.4503214531110121</v>
       </c>
       <c r="T27">
-        <v>0.3850676193952511</v>
+        <v>0.2807288258325366</v>
       </c>
       <c r="U27">
-        <v>0.1881635451910987</v>
+        <v>0.1678771246384368</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2054,64 +2054,64 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28">
-        <v>2.040816326530612</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="C28">
-        <v>1.182683008260437</v>
+        <v>0.2599143142806769</v>
       </c>
       <c r="D28">
-        <v>1.267054651654637</v>
+        <v>0.302979007263133</v>
       </c>
       <c r="E28">
-        <v>1.331991683492201</v>
+        <v>0.3522693720472176</v>
       </c>
       <c r="F28">
-        <v>1.386837610501826</v>
+        <v>0.4070503721021529</v>
       </c>
       <c r="G28">
-        <v>1.291615734372886</v>
+        <v>0.4785166276427129</v>
       </c>
       <c r="H28">
-        <v>1.58744582619967</v>
+        <v>0.5647258637158075</v>
       </c>
       <c r="I28">
-        <v>0.8573693744967813</v>
+        <v>0.7654031257095606</v>
       </c>
       <c r="J28">
-        <v>0.2779124820246345</v>
+        <v>1.09688304709777</v>
       </c>
       <c r="K28">
-        <v>0.2388362281183365</v>
+        <v>1.539014932914253</v>
       </c>
       <c r="L28">
-        <v>0.2565666724195583</v>
+        <v>1.778329353872474</v>
       </c>
       <c r="M28">
-        <v>0.324615841098788</v>
+        <v>1.430385896570654</v>
       </c>
       <c r="N28">
-        <v>0.4107437864712974</v>
+        <v>0.9413357136865573</v>
       </c>
       <c r="O28">
-        <v>0.5425532175731365</v>
+        <v>0.8669803666791112</v>
       </c>
       <c r="P28">
-        <v>0.6566274993129192</v>
+        <v>0.7195140991777923</v>
       </c>
       <c r="Q28">
-        <v>0.6668837613894421</v>
+        <v>0.4830374252499855</v>
       </c>
       <c r="R28">
-        <v>0.4834627880896454</v>
+        <v>0.5022015228166818</v>
       </c>
       <c r="S28">
-        <v>0.3930432977411388</v>
+        <v>0.3379462638599538</v>
       </c>
       <c r="T28">
-        <v>0.2583067128411616</v>
+        <v>0.2532620586340313</v>
       </c>
       <c r="U28">
-        <v>0.1341876989211607</v>
+        <v>0.1295611839253139</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2119,64 +2119,64 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
-        <v>2.122448979591836</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="C29">
-        <v>0.9380061937696539</v>
+        <v>0.175899829281761</v>
       </c>
       <c r="D29">
-        <v>1.025752702899622</v>
+        <v>0.2206871099835154</v>
       </c>
       <c r="E29">
-        <v>1.062926277301063</v>
+        <v>0.2819806591025493</v>
       </c>
       <c r="F29">
-        <v>1.197881445296989</v>
+        <v>0.3508141830263328</v>
       </c>
       <c r="G29">
-        <v>1.206436639135542</v>
+        <v>0.458574661620461</v>
       </c>
       <c r="H29">
-        <v>1.210711572237078</v>
+        <v>0.6058746467729597</v>
       </c>
       <c r="I29">
-        <v>1.492783130578014</v>
+        <v>0.9001633289426104</v>
       </c>
       <c r="J29">
-        <v>0.8314526860323963</v>
+        <v>1.355888723536491</v>
       </c>
       <c r="K29">
-        <v>0.2827217705526299</v>
+        <v>1.749476829350762</v>
       </c>
       <c r="L29">
-        <v>0.3081425636666231</v>
+        <v>1.753443975624044</v>
       </c>
       <c r="M29">
-        <v>0.3457169589276474</v>
+        <v>1.326689631679297</v>
       </c>
       <c r="N29">
-        <v>0.4515289044743805</v>
+        <v>1.02842912845623</v>
       </c>
       <c r="O29">
-        <v>0.5442118776349363</v>
+        <v>0.925501312707271</v>
       </c>
       <c r="P29">
-        <v>0.5566282272107573</v>
+        <v>0.5824403323070267</v>
       </c>
       <c r="Q29">
-        <v>0.3850271543778883</v>
+        <v>0.4372954166263759</v>
       </c>
       <c r="R29">
-        <v>0.317860580034611</v>
+        <v>0.4140461631818892</v>
       </c>
       <c r="S29">
-        <v>0.2270210974644068</v>
+        <v>0.2480831739772738</v>
       </c>
       <c r="T29">
-        <v>0.1493459837005741</v>
+        <v>0.2182030982828909</v>
       </c>
       <c r="U29">
-        <v>0.07785673977717984</v>
+        <v>0.09207879911435306</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2184,64 +2184,64 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>2.204081632653061</v>
+        <v>1.125</v>
       </c>
       <c r="C30">
-        <v>0.6507592375990505</v>
+        <v>0.09785961954298504</v>
       </c>
       <c r="D30">
-        <v>0.7418806124647863</v>
+        <v>0.1443694879640377</v>
       </c>
       <c r="E30">
-        <v>0.8959560993970624</v>
+        <v>0.2154355467291471</v>
       </c>
       <c r="F30">
-        <v>0.8925643456700002</v>
+        <v>0.3063376252314777</v>
       </c>
       <c r="G30">
-        <v>1.123988156374304</v>
+        <v>0.4505925316293226</v>
       </c>
       <c r="H30">
-        <v>1.111712298175447</v>
+        <v>0.6863123930114928</v>
       </c>
       <c r="I30">
-        <v>1.215652136511819</v>
+        <v>1.077923289865664</v>
       </c>
       <c r="J30">
-        <v>1.501812751656487</v>
+        <v>1.601159636473353</v>
       </c>
       <c r="K30">
-        <v>0.8933636599026733</v>
+        <v>1.86308043804408</v>
       </c>
       <c r="L30">
-        <v>0.3787268861725511</v>
+        <v>1.621298760774467</v>
       </c>
       <c r="M30">
-        <v>0.4405359815855931</v>
+        <v>1.257774015475763</v>
       </c>
       <c r="N30">
-        <v>0.4867611241416638</v>
+        <v>1.167306404096409</v>
       </c>
       <c r="O30">
-        <v>0.474912124973641</v>
+        <v>0.9252506749688085</v>
       </c>
       <c r="P30">
-        <v>0.2845730257244973</v>
+        <v>0.4978573623215166</v>
       </c>
       <c r="Q30">
-        <v>0.2123029614705539</v>
+        <v>0.4247599852907996</v>
       </c>
       <c r="R30">
-        <v>0.1365432236572106</v>
+        <v>0.2919192086948996</v>
       </c>
       <c r="S30">
-        <v>0.08120734401021493</v>
+        <v>0.1950595978512361</v>
       </c>
       <c r="T30">
-        <v>0.0538040391466728</v>
+        <v>0.1609958839737768</v>
       </c>
       <c r="U30">
-        <v>0.02271597787681057</v>
+        <v>0.06553978088130208</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2249,64 +2249,64 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>2.285714285714286</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="C31">
-        <v>0.4315951694572214</v>
+        <v>0.02783598829385166</v>
       </c>
       <c r="D31">
-        <v>0.5260914100587252</v>
+        <v>0.07606844443420253</v>
       </c>
       <c r="E31">
-        <v>0.5822739257605232</v>
+        <v>0.1557527149258578</v>
       </c>
       <c r="F31">
-        <v>0.8229584198752146</v>
+        <v>0.2772783679528715</v>
       </c>
       <c r="G31">
-        <v>0.8108831884818112</v>
+        <v>0.4677487537616308</v>
       </c>
       <c r="H31">
-        <v>1.132927675303916</v>
+        <v>0.8082905276866771</v>
       </c>
       <c r="I31">
-        <v>1.123123004508203</v>
+        <v>1.291101765822221</v>
       </c>
       <c r="J31">
-        <v>1.307207881868095</v>
+        <v>1.782103733464379</v>
       </c>
       <c r="K31">
-        <v>1.602527080982493</v>
+        <v>1.850841685950371</v>
       </c>
       <c r="L31">
-        <v>1.01831106925732</v>
+        <v>1.4603403320712</v>
       </c>
       <c r="M31">
-        <v>0.5273274757113351</v>
+        <v>1.260332629963351</v>
       </c>
       <c r="N31">
-        <v>0.4725857152927536</v>
+        <v>1.269852067581974</v>
       </c>
       <c r="O31">
-        <v>0.2388646974153689</v>
+        <v>0.8801240245919723</v>
       </c>
       <c r="P31">
-        <v>0.1348627879458074</v>
+        <v>0.5054561750736348</v>
       </c>
       <c r="Q31">
-        <v>0.04346186730982292</v>
+        <v>0.3992845107694223</v>
       </c>
       <c r="R31">
-        <v>-0.01756153118386618</v>
+        <v>0.181176814454</v>
       </c>
       <c r="S31">
-        <v>-0.03005888884609836</v>
+        <v>0.1602426783903624</v>
       </c>
       <c r="T31">
-        <v>-0.03799714019100994</v>
+        <v>0.09046802649937229</v>
       </c>
       <c r="U31">
-        <v>-0.01692498176944307</v>
+        <v>0.04887263886656767</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2314,64 +2314,64 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>2.36734693877551</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="C32">
-        <v>0.1818011843691678</v>
+        <v>-0.03242180695233783</v>
       </c>
       <c r="D32">
-        <v>0.2796722907064396</v>
+        <v>0.01753323690731129</v>
       </c>
       <c r="E32">
-        <v>0.4551973795685576</v>
+        <v>0.1085165894010278</v>
       </c>
       <c r="F32">
-        <v>0.5137981988094363</v>
+        <v>0.2675904138205705</v>
       </c>
       <c r="G32">
-        <v>0.830320197584403</v>
+        <v>0.5249187230266529</v>
       </c>
       <c r="H32">
-        <v>0.837595792881887</v>
+        <v>0.9683411153094941</v>
       </c>
       <c r="I32">
-        <v>1.226544303581556</v>
+        <v>1.508343152671535</v>
       </c>
       <c r="J32">
-        <v>1.228031576694843</v>
+        <v>1.857837575018879</v>
       </c>
       <c r="K32">
-        <v>1.461432028999239</v>
+        <v>1.724038030016827</v>
       </c>
       <c r="L32">
-        <v>1.755858300671606</v>
+        <v>1.349843362558095</v>
       </c>
       <c r="M32">
-        <v>1.046458797151895</v>
+        <v>1.318216388415256</v>
       </c>
       <c r="N32">
-        <v>0.291111361645849</v>
+        <v>1.273157908991584</v>
       </c>
       <c r="O32">
-        <v>0.1364447160547258</v>
+        <v>0.8409920452473395</v>
       </c>
       <c r="P32">
-        <v>0.004648315481105982</v>
+        <v>0.5834293144114923</v>
       </c>
       <c r="Q32">
-        <v>-0.08853353924405273</v>
+        <v>0.3475949519167443</v>
       </c>
       <c r="R32">
-        <v>-0.117112000773294</v>
+        <v>0.122731424223104</v>
       </c>
       <c r="S32">
-        <v>-0.1296118372531919</v>
+        <v>0.1152619952130818</v>
       </c>
       <c r="T32">
-        <v>-0.09424112187708415</v>
+        <v>0.02934365295475295</v>
       </c>
       <c r="U32">
-        <v>-0.05332193644304748</v>
+        <v>0.03261042178973953</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2379,64 +2379,64 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33">
-        <v>2.448979591836734</v>
+        <v>1.25</v>
       </c>
       <c r="C33">
-        <v>0.01441000514562792</v>
+        <v>-0.0804836521857337</v>
       </c>
       <c r="D33">
-        <v>0.1156559772186676</v>
+        <v>-0.02880602060678632</v>
       </c>
       <c r="E33">
-        <v>0.2209103296447936</v>
+        <v>0.08038939907716305</v>
       </c>
       <c r="F33">
-        <v>0.462845736232849</v>
+        <v>0.2847115065213486</v>
       </c>
       <c r="G33">
-        <v>0.5551774475545395</v>
+        <v>0.6312431960810428</v>
       </c>
       <c r="H33">
-        <v>0.9211856629588219</v>
+        <v>1.154853148143172</v>
       </c>
       <c r="I33">
-        <v>0.9592348661927539</v>
+        <v>1.679179775859796</v>
       </c>
       <c r="J33">
-        <v>1.381885901412812</v>
+        <v>1.812851594674024</v>
       </c>
       <c r="K33">
-        <v>1.386837937251123</v>
+        <v>1.538229920081386</v>
       </c>
       <c r="L33">
-        <v>1.522004015710493</v>
+        <v>1.328411309180165</v>
       </c>
       <c r="M33">
-        <v>1.527890906457817</v>
+        <v>1.374791440087715</v>
       </c>
       <c r="N33">
-        <v>0.7022545225639812</v>
+        <v>1.180290091010902</v>
       </c>
       <c r="O33">
-        <v>0.0634627978932151</v>
+        <v>0.8483514675638374</v>
       </c>
       <c r="P33">
-        <v>-0.0807573593910948</v>
+        <v>0.6690937692741719</v>
       </c>
       <c r="Q33">
-        <v>-0.1503672449949245</v>
+        <v>0.3008829853190564</v>
       </c>
       <c r="R33">
-        <v>-0.1937818442450838</v>
+        <v>0.1216978386693114</v>
       </c>
       <c r="S33">
-        <v>-0.1752821650222871</v>
+        <v>0.05257825421326822</v>
       </c>
       <c r="T33">
-        <v>-0.1378451698373706</v>
+        <v>-0.006906242933025201</v>
       </c>
       <c r="U33">
-        <v>-0.07039203317840623</v>
+        <v>0.009469349357898491</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2444,64 +2444,64 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
-        <v>2.530612244897959</v>
+        <v>1.291666666666667</v>
       </c>
       <c r="C34">
-        <v>-0.1423663953801854</v>
+        <v>-0.112163873622375</v>
       </c>
       <c r="D34">
-        <v>-0.0377455575713777</v>
+        <v>-0.05876365432412939</v>
       </c>
       <c r="E34">
-        <v>0.1266011097581573</v>
+        <v>0.07823339850780349</v>
       </c>
       <c r="F34">
-        <v>0.272864767427462</v>
+        <v>0.3397986513398851</v>
       </c>
       <c r="G34">
-        <v>0.5536305345693128</v>
+        <v>0.7844260969411678</v>
       </c>
       <c r="H34">
-        <v>0.6919823017129443</v>
+        <v>1.343474959464498</v>
       </c>
       <c r="I34">
-        <v>1.07372334048953</v>
+        <v>1.752776450092568</v>
       </c>
       <c r="J34">
-        <v>1.135552141035942</v>
+        <v>1.666180362903158</v>
       </c>
       <c r="K34">
-        <v>1.446156663155552</v>
+        <v>1.370907134113816</v>
       </c>
       <c r="L34">
-        <v>1.169161150208843</v>
+        <v>1.374097828310178</v>
       </c>
       <c r="M34">
-        <v>1.205869707145854</v>
+        <v>1.372284038223638</v>
       </c>
       <c r="N34">
-        <v>1.302602652893589</v>
+        <v>1.054634000887611</v>
       </c>
       <c r="O34">
-        <v>0.4796608164480742</v>
+        <v>0.8966183549483614</v>
       </c>
       <c r="P34">
-        <v>-0.08630794680530648</v>
+        <v>0.70893108524274</v>
       </c>
       <c r="Q34">
-        <v>-0.1795179653219051</v>
+        <v>0.3043453850979776</v>
       </c>
       <c r="R34">
-        <v>-0.2029365292277099</v>
+        <v>0.1508017713280261</v>
       </c>
       <c r="S34">
-        <v>-0.1953156013079159</v>
+        <v>-0.005460109028785547</v>
       </c>
       <c r="T34">
-        <v>-0.1450045128149053</v>
+        <v>-0.02168544985720558</v>
       </c>
       <c r="U34">
-        <v>-0.07740490981742441</v>
+        <v>-0.01802321221471254</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2509,64 +2509,64 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35">
-        <v>2.612244897959183</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C35">
-        <v>-0.2342221925266705</v>
+        <v>-0.1208415477646755</v>
       </c>
       <c r="D35">
-        <v>-0.1262264889820948</v>
+        <v>-0.06571874074713165</v>
       </c>
       <c r="E35">
-        <v>0.02141028115812</v>
+        <v>0.1095217813221257</v>
       </c>
       <c r="F35">
-        <v>0.2207704629453283</v>
+        <v>0.4432212092500947</v>
       </c>
       <c r="G35">
-        <v>0.4200916241611625</v>
+        <v>0.9685499780790591</v>
       </c>
       <c r="H35">
-        <v>0.7068771622298917</v>
+        <v>1.495989778217229</v>
       </c>
       <c r="I35">
-        <v>0.8832815853326951</v>
+        <v>1.70239848251787</v>
       </c>
       <c r="J35">
-        <v>1.138637941221014</v>
+        <v>1.468503949216865</v>
       </c>
       <c r="K35">
-        <v>0.9396904489252575</v>
+        <v>1.28139371860728</v>
       </c>
       <c r="L35">
-        <v>1.129088937177508</v>
+        <v>1.420559595706374</v>
       </c>
       <c r="M35">
-        <v>0.9493794952590033</v>
+        <v>1.291645788552479</v>
       </c>
       <c r="N35">
-        <v>1.013569405079628</v>
+        <v>0.9716128649373589</v>
       </c>
       <c r="O35">
-        <v>1.153410468567644</v>
+        <v>0.9394696678821917</v>
       </c>
       <c r="P35">
-        <v>0.3760457372892547</v>
+        <v>0.695827675872592</v>
       </c>
       <c r="Q35">
-        <v>-0.1335294579226492</v>
+        <v>0.3737128209360277</v>
       </c>
       <c r="R35">
-        <v>-0.1747098558454979</v>
+        <v>0.1813843984604744</v>
       </c>
       <c r="S35">
-        <v>-0.1665999413275471</v>
+        <v>-0.02575773163320528</v>
       </c>
       <c r="T35">
-        <v>-0.1281661235157951</v>
+        <v>-0.02922687354425958</v>
       </c>
       <c r="U35">
-        <v>-0.06770914149540151</v>
+        <v>-0.03967674828649596</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -2574,64 +2574,64 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36">
-        <v>2.693877551020408</v>
+        <v>1.375</v>
       </c>
       <c r="C36">
-        <v>-0.280737697009017</v>
+        <v>-0.09724407810193059</v>
       </c>
       <c r="D36">
-        <v>-0.1693671277286733</v>
+        <v>-0.04039868336508847</v>
       </c>
       <c r="E36">
-        <v>-0.02662631527629195</v>
+        <v>0.1828577033915746</v>
       </c>
       <c r="F36">
-        <v>0.1754126440645564</v>
+        <v>0.5971501426858068</v>
       </c>
       <c r="G36">
-        <v>0.3786167543769867</v>
+        <v>1.155088594252781</v>
       </c>
       <c r="H36">
-        <v>0.6210255706954089</v>
+        <v>1.568894188943593</v>
       </c>
       <c r="I36">
-        <v>0.7766747278652318</v>
+        <v>1.542154649988831</v>
       </c>
       <c r="J36">
-        <v>0.7058122363435829</v>
+        <v>1.284684200843027</v>
       </c>
       <c r="K36">
-        <v>0.8186959344641412</v>
+        <v>1.276740847326363</v>
       </c>
       <c r="L36">
-        <v>0.7362066472839047</v>
+        <v>1.400978454967252</v>
       </c>
       <c r="M36">
-        <v>0.9376198200151891</v>
+        <v>1.164533707245355</v>
       </c>
       <c r="N36">
-        <v>0.8052948310781597</v>
+        <v>0.9637811958809377</v>
       </c>
       <c r="O36">
-        <v>0.940176720950618</v>
+        <v>0.9307164469313302</v>
       </c>
       <c r="P36">
-        <v>1.106481118318864</v>
+        <v>0.6649190030447006</v>
       </c>
       <c r="Q36">
-        <v>0.3760923108640272</v>
+        <v>0.4781764402746703</v>
       </c>
       <c r="R36">
-        <v>-0.09134852261392017</v>
+        <v>0.2103565297190519</v>
       </c>
       <c r="S36">
-        <v>-0.1012260560691165</v>
+        <v>0.007827166470721486</v>
       </c>
       <c r="T36">
-        <v>-0.08275281988287067</v>
+        <v>-0.0363718944679127</v>
       </c>
       <c r="U36">
-        <v>-0.0438315444019545</v>
+        <v>-0.04642751709670754</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -2639,64 +2639,64 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37">
-        <v>2.775510204081633</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="C37">
-        <v>-0.2899776146614467</v>
+        <v>-0.02961719602724416</v>
       </c>
       <c r="D37">
-        <v>-0.175232179645335</v>
+        <v>0.02895078642889619</v>
       </c>
       <c r="E37">
-        <v>-0.01013120101626373</v>
+        <v>0.3065108798907477</v>
       </c>
       <c r="F37">
-        <v>0.1379563761462256</v>
+        <v>0.789396132367126</v>
       </c>
       <c r="G37">
-        <v>0.3821544874640823</v>
+        <v>1.306898849622944</v>
       </c>
       <c r="H37">
-        <v>0.457437789184862</v>
+        <v>1.531831513816506</v>
       </c>
       <c r="I37">
-        <v>0.4561425884414912</v>
+        <v>1.325255373257245</v>
       </c>
       <c r="J37">
-        <v>0.458979814442146</v>
+        <v>1.166195969598225</v>
       </c>
       <c r="K37">
-        <v>0.5141852332861669</v>
+        <v>1.307648854524559</v>
       </c>
       <c r="L37">
-        <v>0.6269967123901967</v>
+        <v>1.291826682859616</v>
       </c>
       <c r="M37">
-        <v>0.6075262539193549</v>
+        <v>1.048531251646782</v>
       </c>
       <c r="N37">
-        <v>0.8644654443724752</v>
+        <v>1.000600682233434</v>
       </c>
       <c r="O37">
-        <v>0.7645828918800848</v>
+        <v>0.8649515418799377</v>
       </c>
       <c r="P37">
-        <v>0.9699152535540893</v>
+        <v>0.6561920194981566</v>
       </c>
       <c r="Q37">
-        <v>1.149060583477941</v>
+        <v>0.5641729363815744</v>
       </c>
       <c r="R37">
-        <v>0.4450684512903069</v>
+        <v>0.2580429529593546</v>
       </c>
       <c r="S37">
-        <v>-0.001151453667592083</v>
+        <v>0.08376286425167703</v>
       </c>
       <c r="T37">
-        <v>-0.01033475916912853</v>
+        <v>-0.03269508126751687</v>
       </c>
       <c r="U37">
-        <v>-0.008090022984427594</v>
+        <v>-0.03667919341065966</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -2704,64 +2704,64 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38">
-        <v>2.857142857142857</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="C38">
-        <v>-0.2434391636966972</v>
+        <v>0.09539016658235688</v>
       </c>
       <c r="D38">
-        <v>-0.1253188629448176</v>
+        <v>0.1556807367577955</v>
       </c>
       <c r="E38">
-        <v>-0.003492602928529529</v>
+        <v>0.4841070682268039</v>
       </c>
       <c r="F38">
-        <v>0.2009394224525667</v>
+        <v>0.9922681716124873</v>
       </c>
       <c r="G38">
-        <v>0.2278347005750243</v>
+        <v>1.386280915547254</v>
       </c>
       <c r="H38">
-        <v>0.2260245800232989</v>
+        <v>1.387089541528643</v>
       </c>
       <c r="I38">
-        <v>0.146484502269325</v>
+        <v>1.122350881271612</v>
       </c>
       <c r="J38">
-        <v>0.2700652885093139</v>
+        <v>1.125977072846557</v>
       </c>
       <c r="K38">
-        <v>0.2727236605140114</v>
+        <v>1.300602515154474</v>
       </c>
       <c r="L38">
-        <v>0.3957712323748607</v>
+        <v>1.126919854265491</v>
       </c>
       <c r="M38">
-        <v>0.5538019211668843</v>
+        <v>0.9841731601902696</v>
       </c>
       <c r="N38">
-        <v>0.5827984856493726</v>
+        <v>1.01719969448526</v>
       </c>
       <c r="O38">
-        <v>0.8934743675418489</v>
+        <v>0.7826951717099957</v>
       </c>
       <c r="P38">
-        <v>0.8148247137003559</v>
+        <v>0.6792015098919271</v>
       </c>
       <c r="Q38">
-        <v>1.068226006676302</v>
+        <v>0.5979039362238625</v>
       </c>
       <c r="R38">
-        <v>1.239768674790152</v>
+        <v>0.3413295439654384</v>
       </c>
       <c r="S38">
-        <v>0.531949106497203</v>
+        <v>0.176509589368738</v>
       </c>
       <c r="T38">
-        <v>0.08026391988029792</v>
+        <v>0.001677893883536189</v>
       </c>
       <c r="U38">
-        <v>0.04039436641366778</v>
+        <v>-0.01446620192464478</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -2769,64 +2769,64 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39">
-        <v>2.938775510204081</v>
+        <v>1.5</v>
       </c>
       <c r="C39">
-        <v>-0.1865953955667729</v>
+        <v>0.2902562224862014</v>
       </c>
       <c r="D39">
-        <v>-0.0651002290791252</v>
+        <v>0.3522693803809382</v>
       </c>
       <c r="E39">
-        <v>0.09038595545779304</v>
+        <v>0.7091451138900513</v>
       </c>
       <c r="F39">
-        <v>0.09762323333498801</v>
+        <v>1.167984513201424</v>
       </c>
       <c r="G39">
-        <v>0.05231344190874623</v>
+        <v>1.367674352736066</v>
       </c>
       <c r="H39">
-        <v>-0.07434846291249696</v>
+        <v>1.176806038298085</v>
       </c>
       <c r="I39">
-        <v>0.04164543828986368</v>
+        <v>0.989515658193043</v>
       </c>
       <c r="J39">
-        <v>-0.02985865329990182</v>
+        <v>1.131129860663509</v>
       </c>
       <c r="K39">
-        <v>0.1554891598914546</v>
+        <v>1.207080635191307</v>
       </c>
       <c r="L39">
-        <v>0.2055475220397822</v>
+        <v>0.9718674304852366</v>
       </c>
       <c r="M39">
-        <v>0.3812280649431911</v>
+        <v>0.9664721921297331</v>
       </c>
       <c r="N39">
-        <v>0.5826340105006982</v>
+        <v>0.9679035126318764</v>
       </c>
       <c r="O39">
-        <v>0.649839233160471</v>
+        <v>0.7357682329037487</v>
       </c>
       <c r="P39">
-        <v>0.9903670664612391</v>
+        <v>0.709924317158552</v>
       </c>
       <c r="Q39">
-        <v>0.9145886064957275</v>
+        <v>0.5892158999574897</v>
       </c>
       <c r="R39">
-        <v>1.18432897824933</v>
+        <v>0.4500188438629665</v>
       </c>
       <c r="S39">
-        <v>1.321716402331257</v>
+        <v>0.2688255782650518</v>
       </c>
       <c r="T39">
-        <v>0.5792819126562008</v>
+        <v>0.07846633065072955</v>
       </c>
       <c r="U39">
-        <v>0.09538262084140187</v>
+        <v>0.01764216357091326</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -2834,64 +2834,64 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40">
-        <v>3.020408163265306</v>
+        <v>1.541666666666667</v>
       </c>
       <c r="C40">
-        <v>-0.08992895260747669</v>
+        <v>0.5617666925070939</v>
       </c>
       <c r="D40">
-        <v>0.03494107961593899</v>
+        <v>0.6255024381211289</v>
       </c>
       <c r="E40">
-        <v>0.04647981774353798</v>
+        <v>0.9618731636844922</v>
       </c>
       <c r="F40">
-        <v>-0.05016826175058488</v>
+        <v>1.279719566364094</v>
       </c>
       <c r="G40">
-        <v>-0.195734401445695</v>
+        <v>1.251745945330951</v>
       </c>
       <c r="H40">
-        <v>-0.1314040397189736</v>
+        <v>0.9693165054543842</v>
       </c>
       <c r="I40">
-        <v>-0.239134211681406</v>
+        <v>0.9421156816866498</v>
       </c>
       <c r="J40">
-        <v>-0.07258059687445528</v>
+        <v>1.121547394010002</v>
       </c>
       <c r="K40">
-        <v>-0.08675194153275634</v>
+        <v>1.036505909014031</v>
       </c>
       <c r="L40">
-        <v>0.1446551259547109</v>
+        <v>0.8771629415249923</v>
       </c>
       <c r="M40">
-        <v>0.2406325113412337</v>
+        <v>0.9525142760829465</v>
       </c>
       <c r="N40">
-        <v>0.458581012323687</v>
+        <v>0.8613246185577597</v>
       </c>
       <c r="O40">
-        <v>0.6795548707488119</v>
+        <v>0.743274274688451</v>
       </c>
       <c r="P40">
-        <v>0.7670745592482463</v>
+        <v>0.7186200859979163</v>
       </c>
       <c r="Q40">
-        <v>1.104699078592678</v>
+        <v>0.5779092524472198</v>
       </c>
       <c r="R40">
-        <v>1.006852758505251</v>
+        <v>0.5501311634908108</v>
       </c>
       <c r="S40">
-        <v>1.260877228374735</v>
+        <v>0.3609102775113109</v>
       </c>
       <c r="T40">
-        <v>1.337285484369809</v>
+        <v>0.1902516233076958</v>
       </c>
       <c r="U40">
-        <v>0.5360561245533482</v>
+        <v>0.06282261571307655</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -2899,64 +2899,64 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41">
-        <v>3.102040816326531</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="C41">
-        <v>-0.09704086174378265</v>
+        <v>0.9042758325830398</v>
       </c>
       <c r="D41">
-        <v>0.03120403621540101</v>
+        <v>0.9697341659163731</v>
       </c>
       <c r="E41">
-        <v>-0.09616564173692016</v>
+        <v>1.211691914659751</v>
       </c>
       <c r="F41">
-        <v>-0.2389040287731707</v>
+        <v>1.305460447990934</v>
       </c>
       <c r="G41">
-        <v>-0.2324294394722339</v>
+        <v>1.073052694106693</v>
       </c>
       <c r="H41">
-        <v>-0.3493872833133498</v>
+        <v>0.8285192065427319</v>
       </c>
       <c r="I41">
-        <v>-0.2457557629345774</v>
+        <v>0.9490938820005553</v>
       </c>
       <c r="J41">
-        <v>-0.2846321298224298</v>
+        <v>1.046735481848279</v>
       </c>
       <c r="K41">
-        <v>-0.08277339955053907</v>
+        <v>0.8490180549120296</v>
       </c>
       <c r="L41">
-        <v>-0.04137731528205951</v>
+        <v>0.8440344162422176</v>
       </c>
       <c r="M41">
-        <v>0.2258097317469454</v>
+        <v>0.898263173570941</v>
       </c>
       <c r="N41">
-        <v>0.3443772404652555</v>
+        <v>0.7499420934882058</v>
       </c>
       <c r="O41">
-        <v>0.5861039466008324</v>
+        <v>0.7765319105139391</v>
       </c>
       <c r="P41">
-        <v>0.7944931838754263</v>
+        <v>0.699893930925086</v>
       </c>
       <c r="Q41">
-        <v>0.8772829652942394</v>
+        <v>0.5973433469148731</v>
       </c>
       <c r="R41">
-        <v>1.1793014922383</v>
+        <v>0.6113198071636268</v>
       </c>
       <c r="S41">
-        <v>1.033865197519797</v>
+        <v>0.4597903091284332</v>
       </c>
       <c r="T41">
-        <v>1.246792052878923</v>
+        <v>0.3151023501375948</v>
       </c>
       <c r="U41">
-        <v>1.242163399391804</v>
+        <v>0.1265005667267908</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -2964,64 +2964,64 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42">
-        <v>3.183673469387755</v>
+        <v>1.625</v>
       </c>
       <c r="C42">
-        <v>-0.3466203098726019</v>
+        <v>1.293369706855861</v>
       </c>
       <c r="D42">
-        <v>-0.2150005461776502</v>
+        <v>1.360550627908492</v>
       </c>
       <c r="E42">
-        <v>-0.2470820436719804</v>
+        <v>1.425671776159082</v>
       </c>
       <c r="F42">
-        <v>-0.2754663147788776</v>
+        <v>1.250191931625677</v>
       </c>
       <c r="G42">
-        <v>-0.3826837553236867</v>
+        <v>0.8931273522420852</v>
       </c>
       <c r="H42">
-        <v>-0.3455814727515333</v>
+        <v>0.7823111895170396</v>
       </c>
       <c r="I42">
-        <v>-0.3844881726571894</v>
+        <v>0.9521472786428777</v>
       </c>
       <c r="J42">
-        <v>-0.2552179252790931</v>
+        <v>0.8988429980401097</v>
       </c>
       <c r="K42">
-        <v>-0.2283685114185926</v>
+        <v>0.7124192673119691</v>
       </c>
       <c r="L42">
-        <v>-0.0004744707506576821</v>
+        <v>0.8279100007182665</v>
       </c>
       <c r="M42">
-        <v>0.07299063739247122</v>
+        <v>0.7945640702071115</v>
       </c>
       <c r="N42">
-        <v>0.3571017657010288</v>
+        <v>0.6849824796242366</v>
       </c>
       <c r="O42">
-        <v>0.4670531732578709</v>
+        <v>0.7855981345865571</v>
       </c>
       <c r="P42">
-        <v>0.7063934604682454</v>
+        <v>0.6766243015615486</v>
       </c>
       <c r="Q42">
-        <v>0.8704716185522116</v>
+        <v>0.6484176015100536</v>
       </c>
       <c r="R42">
-        <v>0.9225293236338662</v>
+        <v>0.632539215007681</v>
       </c>
       <c r="S42">
-        <v>1.163090688939843</v>
+        <v>0.5624752113089659</v>
       </c>
       <c r="T42">
-        <v>0.9511777985030336</v>
+        <v>0.4308748881048697</v>
       </c>
       <c r="U42">
-        <v>0.7489521507872012</v>
+        <v>0.2080253549551851</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3029,64 +3029,64 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43">
-        <v>3.265306122448979</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C43">
-        <v>-0.7490787655474934</v>
+        <v>1.683703714065607</v>
       </c>
       <c r="D43">
-        <v>-0.6140841361167738</v>
+        <v>1.752607222837536</v>
       </c>
       <c r="E43">
-        <v>-0.3876888835188322</v>
+        <v>1.580343338164699</v>
       </c>
       <c r="F43">
-        <v>-0.3821429942851164</v>
+        <v>1.150628275003839</v>
       </c>
       <c r="G43">
-        <v>-0.3855193270016084</v>
+        <v>0.7775771071585125</v>
       </c>
       <c r="H43">
-        <v>-0.4090974924818074</v>
+        <v>0.8092400544536337</v>
       </c>
       <c r="I43">
-        <v>-0.3525090850035692</v>
+        <v>0.9004284460103603</v>
       </c>
       <c r="J43">
-        <v>-0.3188329102607624</v>
+        <v>0.7190615460328074</v>
       </c>
       <c r="K43">
-        <v>-0.1711799503315148</v>
+        <v>0.6544263956263477</v>
       </c>
       <c r="L43">
-        <v>-0.103261307156921</v>
+        <v>0.7759481165712061</v>
       </c>
       <c r="M43">
-        <v>0.1323448672397445</v>
+        <v>0.6734830137877671</v>
       </c>
       <c r="N43">
-        <v>0.2069329573649009</v>
+        <v>0.6753954070153062</v>
       </c>
       <c r="O43">
-        <v>0.4809980703841175</v>
+        <v>0.7434517015856654</v>
       </c>
       <c r="P43">
-        <v>0.5518214652641903</v>
+        <v>0.6758892564263157</v>
       </c>
       <c r="Q43">
-        <v>0.7613679327890396</v>
+        <v>0.7046589381584406</v>
       </c>
       <c r="R43">
-        <v>0.8564011957727676</v>
+        <v>0.6420449583946242</v>
       </c>
       <c r="S43">
-        <v>0.8581882301270745</v>
+        <v>0.6515875361600966</v>
       </c>
       <c r="T43">
-        <v>0.6719208431390816</v>
+        <v>0.5255350936258583</v>
       </c>
       <c r="U43">
-        <v>-0.2702502753302724</v>
+        <v>0.2953775110702382</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3094,64 +3094,64 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44">
-        <v>3.346938775510204</v>
+        <v>1.708333333333333</v>
       </c>
       <c r="C44">
-        <v>-1.055763377465881</v>
+        <v>2.014557587386879</v>
       </c>
       <c r="D44">
-        <v>-0.9173938822993938</v>
+        <v>2.085183683878107</v>
       </c>
       <c r="E44">
-        <v>-0.7368608964338559</v>
+        <v>1.671425449457393</v>
       </c>
       <c r="F44">
-        <v>-0.4907949301755397</v>
+        <v>1.067267221518199</v>
       </c>
       <c r="G44">
-        <v>-0.40130610854694</v>
+        <v>0.7666385068712279</v>
       </c>
       <c r="H44">
-        <v>-0.3877149453562064</v>
+        <v>0.8531473241871751</v>
       </c>
       <c r="I44">
-        <v>-0.3360876314973414</v>
+        <v>0.7813825532749462</v>
       </c>
       <c r="J44">
-        <v>-0.2645595604106726</v>
+        <v>0.5708311994509611</v>
       </c>
       <c r="K44">
-        <v>-0.1849025713848011</v>
+        <v>0.6456356528876935</v>
       </c>
       <c r="L44">
-        <v>-0.03577596851763715</v>
+        <v>0.6690560136014884</v>
       </c>
       <c r="M44">
-        <v>0.04158699180406984</v>
+        <v>0.580875192862901</v>
       </c>
       <c r="N44">
-        <v>0.2580486084836684</v>
+        <v>0.6845893042032086</v>
       </c>
       <c r="O44">
-        <v>0.3036981679339287</v>
+        <v>0.6688655926349408</v>
       </c>
       <c r="P44">
-        <v>0.5393366435321501</v>
+        <v>0.7016296111646956</v>
       </c>
       <c r="Q44">
-        <v>0.5475238893870842</v>
+        <v>0.7397184073173539</v>
       </c>
       <c r="R44">
-        <v>0.7062692334453888</v>
+        <v>0.6719078025102061</v>
       </c>
       <c r="S44">
-        <v>0.3768754325227381</v>
+        <v>0.7083077905835822</v>
       </c>
       <c r="T44">
-        <v>-0.3372400951566203</v>
+        <v>0.5958051225156026</v>
       </c>
       <c r="U44">
-        <v>-0.1007761557247005</v>
+        <v>0.3682172402469392</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3159,64 +3159,64 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45">
-        <v>3.428571428571428</v>
+        <v>1.75</v>
       </c>
       <c r="C45">
-        <v>-1.314668388573065</v>
+        <v>2.224167582221981</v>
       </c>
       <c r="D45">
-        <v>-1.172924027670809</v>
+        <v>2.296516266432507</v>
       </c>
       <c r="E45">
-        <v>-1.015456725540392</v>
+        <v>1.715943023285576</v>
       </c>
       <c r="F45">
-        <v>-0.7453497624641986</v>
+        <v>1.062794852744159</v>
       </c>
       <c r="G45">
-        <v>-0.484338252175339</v>
+        <v>0.8558439728074276</v>
       </c>
       <c r="H45">
-        <v>-0.3225068446668906</v>
+        <v>0.8587197985663538</v>
       </c>
       <c r="I45">
-        <v>-0.293501618347278</v>
+        <v>0.6289728127646337</v>
       </c>
       <c r="J45">
-        <v>-0.1955806246238241</v>
+        <v>0.4969654516499774</v>
       </c>
       <c r="K45">
-        <v>-0.1241146820202611</v>
+        <v>0.6257178304900113</v>
       </c>
       <c r="L45">
-        <v>-0.03143024753203348</v>
+        <v>0.5357642883377466</v>
       </c>
       <c r="M45">
-        <v>0.09323514456622128</v>
+        <v>0.5389554035581374</v>
       </c>
       <c r="N45">
-        <v>0.1495037303881707</v>
+        <v>0.6654272839711493</v>
       </c>
       <c r="O45">
-        <v>0.3184302893510117</v>
+        <v>0.6085811906488469</v>
       </c>
       <c r="P45">
-        <v>0.3120031278721947</v>
+        <v>0.7307236040951754</v>
       </c>
       <c r="Q45">
-        <v>0.4872946044599745</v>
+        <v>0.7498981159888048</v>
       </c>
       <c r="R45">
-        <v>0.08720356348132371</v>
+        <v>0.7302554310115191</v>
       </c>
       <c r="S45">
-        <v>-0.4725623073867193</v>
+        <v>0.72924418016368</v>
       </c>
       <c r="T45">
-        <v>-0.4129692100922975</v>
+        <v>0.6388840254885422</v>
       </c>
       <c r="U45">
-        <v>-0.05668119154278983</v>
+        <v>0.4073822252178056</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3224,64 +3224,64 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46">
-        <v>3.510204081632653</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="C46">
-        <v>-1.551567495328139</v>
+        <v>2.269734122943841</v>
       </c>
       <c r="D46">
-        <v>-1.406448268690115</v>
+        <v>2.343805394873665</v>
       </c>
       <c r="E46">
-        <v>-1.177563042554059</v>
+        <v>1.743814615121397</v>
       </c>
       <c r="F46">
-        <v>-1.002057376897017</v>
+        <v>1.173437304080001</v>
       </c>
       <c r="G46">
-        <v>-0.6573152690466473</v>
+        <v>1.00016306764169</v>
       </c>
       <c r="H46">
-        <v>-0.3800239940254663</v>
+        <v>0.8070722358628948</v>
       </c>
       <c r="I46">
-        <v>-0.1769828940055382</v>
+        <v>0.5032569995424773</v>
       </c>
       <c r="J46">
-        <v>-0.1456152724886191</v>
+        <v>0.4912116246720457</v>
       </c>
       <c r="K46">
-        <v>-0.03585832399337482</v>
+        <v>0.5521755395923279</v>
       </c>
       <c r="L46">
-        <v>0.01088696307624464</v>
+        <v>0.4280579070437647</v>
       </c>
       <c r="M46">
-        <v>0.08502558869207551</v>
+        <v>0.5302906556099158</v>
       </c>
       <c r="N46">
-        <v>0.1575906267123159</v>
+        <v>0.601677857835203</v>
       </c>
       <c r="O46">
-        <v>0.1690711979118096</v>
+        <v>0.5957276487513976</v>
       </c>
       <c r="P46">
-        <v>0.2686346205766627</v>
+        <v>0.7356604851385006</v>
       </c>
       <c r="Q46">
-        <v>-0.1269288001708865</v>
+        <v>0.7522216915510037</v>
       </c>
       <c r="R46">
-        <v>-0.6806490549836482</v>
+        <v>0.7953441649150241</v>
       </c>
       <c r="S46">
-        <v>-0.7114376210629639</v>
+        <v>0.7295078917665199</v>
       </c>
       <c r="T46">
-        <v>-0.1926416336834411</v>
+        <v>0.6481428689528417</v>
       </c>
       <c r="U46">
-        <v>-0.2977584592163777</v>
+        <v>0.4039085143071296</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3289,64 +3289,64 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47">
-        <v>3.591836734693877</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="C47">
-        <v>-1.700138633458773</v>
+        <v>2.145887895774827</v>
       </c>
       <c r="D47">
-        <v>-1.551644541084982</v>
+        <v>2.22168175542395</v>
       </c>
       <c r="E47">
-        <v>-1.385005708127724</v>
+        <v>1.780988075891574</v>
       </c>
       <c r="F47">
-        <v>-1.087096830857661</v>
+        <v>1.386724655436459</v>
       </c>
       <c r="G47">
-        <v>-0.8893148779915585</v>
+        <v>1.141276170842573</v>
       </c>
       <c r="H47">
-        <v>-0.5031770965601733</v>
+        <v>0.7291548609666181</v>
       </c>
       <c r="I47">
-        <v>-0.221047540297455</v>
+        <v>0.4535016703718491</v>
       </c>
       <c r="J47">
-        <v>-0.01247747951967456</v>
+        <v>0.5058857737891582</v>
       </c>
       <c r="K47">
-        <v>-0.002244428921020575</v>
+        <v>0.4335401233835702</v>
       </c>
       <c r="L47">
-        <v>0.0866934142434322</v>
+        <v>0.3797552279222525</v>
       </c>
       <c r="M47">
-        <v>0.08208117941574875</v>
+        <v>0.5157333127977028</v>
       </c>
       <c r="N47">
-        <v>0.1129456604175714</v>
+        <v>0.5202444858651711</v>
       </c>
       <c r="O47">
-        <v>0.1123863580517973</v>
+        <v>0.6218882547125746</v>
       </c>
       <c r="P47">
-        <v>-0.2505216582038668</v>
+        <v>0.7112485296810102</v>
       </c>
       <c r="Q47">
-        <v>-0.8884798059039267</v>
+        <v>0.7632805725259193</v>
       </c>
       <c r="R47">
-        <v>-0.931948910639557</v>
+        <v>0.8347624913138224</v>
       </c>
       <c r="S47">
-        <v>-0.4077765981084409</v>
+        <v>0.7278334197423516</v>
       </c>
       <c r="T47">
-        <v>-0.5736132764740689</v>
+        <v>0.6180524596117875</v>
       </c>
       <c r="U47">
-        <v>-0.1392957775452021</v>
+        <v>0.3618997686530958</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -3354,64 +3354,64 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48">
-        <v>3.673469387755102</v>
+        <v>1.875</v>
       </c>
       <c r="C48">
-        <v>-1.82434575396283</v>
+        <v>1.892642550479303</v>
       </c>
       <c r="D48">
-        <v>-1.67247679585327</v>
+        <v>1.970158997847724</v>
       </c>
       <c r="E48">
-        <v>-1.457804277455575</v>
+        <v>1.831732008742874</v>
       </c>
       <c r="F48">
-        <v>-1.263027197015968</v>
+        <v>1.639603656684918</v>
       </c>
       <c r="G48">
-        <v>-0.9310002887220384</v>
+        <v>1.24188682691749</v>
       </c>
       <c r="H48">
-        <v>-0.7209778856498638</v>
+        <v>0.6877353707562446</v>
       </c>
       <c r="I48">
-        <v>-0.3300681340224115</v>
+        <v>0.4889112111781581</v>
       </c>
       <c r="J48">
-        <v>-0.06590753755026935</v>
+        <v>0.4907677072880748</v>
       </c>
       <c r="K48">
-        <v>0.1148529088286442</v>
+        <v>0.3215176965644461</v>
       </c>
       <c r="L48">
-        <v>0.078092637839434</v>
+        <v>0.3815575471637287</v>
       </c>
       <c r="M48">
-        <v>0.1205052310581988</v>
+        <v>0.4697231781093315</v>
       </c>
       <c r="N48">
-        <v>0.04446852070657895</v>
+        <v>0.4654232674619109</v>
       </c>
       <c r="O48">
-        <v>-0.2906837412256691</v>
+        <v>0.6468885994819621</v>
       </c>
       <c r="P48">
-        <v>-1.030963820949777</v>
+        <v>0.6793276970115196</v>
       </c>
       <c r="Q48">
-        <v>-1.063747911483963</v>
+        <v>0.7812585128267125</v>
       </c>
       <c r="R48">
-        <v>-0.6231298696051065</v>
+        <v>0.8308629427624646</v>
       </c>
       <c r="S48">
-        <v>-0.7698575349307298</v>
+        <v>0.727428953748426</v>
       </c>
       <c r="T48">
-        <v>-0.362768126807816</v>
+        <v>0.5527910365741592</v>
       </c>
       <c r="U48">
-        <v>-0.2615660076812547</v>
+        <v>0.2950389811022829</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -3419,64 +3419,64 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49">
-        <v>3.755102040816326</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="C49">
-        <v>-1.880659829077347</v>
+        <v>1.58631757582726</v>
       </c>
       <c r="D49">
-        <v>-1.72541600523202</v>
+        <v>1.665556610914979</v>
       </c>
       <c r="E49">
-        <v>-1.543305894795627</v>
+        <v>1.870617128753264</v>
       </c>
       <c r="F49">
-        <v>-1.298474383981639</v>
+        <v>1.842074181792946</v>
       </c>
       <c r="G49">
-        <v>-1.084892167024079</v>
+        <v>1.304591403027697</v>
       </c>
       <c r="H49">
-        <v>-0.7557365000048367</v>
+        <v>0.7383866573883344</v>
       </c>
       <c r="I49">
-        <v>-0.5558963446820061</v>
+        <v>0.5771394133979801</v>
       </c>
       <c r="J49">
-        <v>-0.1938807285473562</v>
+        <v>0.4340745355488563</v>
       </c>
       <c r="K49">
-        <v>0.02668676710821917</v>
+        <v>0.2696142859210525</v>
       </c>
       <c r="L49">
-        <v>0.1534332334019823</v>
+        <v>0.3924112379142141</v>
       </c>
       <c r="M49">
-        <v>0.05025225623981371</v>
+        <v>0.4021562928584743</v>
       </c>
       <c r="N49">
-        <v>-0.2697883986810142</v>
+        <v>0.4597130657302902</v>
       </c>
       <c r="O49">
-        <v>-1.081848118390933</v>
+        <v>0.6359950359555986</v>
       </c>
       <c r="P49">
-        <v>-1.114990053573697</v>
+        <v>0.6670143657600088</v>
       </c>
       <c r="Q49">
-        <v>-0.7707718511355129</v>
+        <v>0.787918645827609</v>
       </c>
       <c r="R49">
-        <v>-0.880000725143247</v>
+        <v>0.7900783710419774</v>
       </c>
       <c r="S49">
-        <v>-0.585303394490547</v>
+        <v>0.7109265941355951</v>
       </c>
       <c r="T49">
-        <v>-0.4432616517684997</v>
+        <v>0.4684115609132078</v>
       </c>
       <c r="U49">
-        <v>-0.2207060667424473</v>
+        <v>0.2207001435203981</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -3484,64 +3484,64 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50">
-        <v>3.836734693877551</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="C50">
-        <v>-1.904110871683537</v>
+        <v>1.313700141079245</v>
       </c>
       <c r="D50">
-        <v>-1.745492182102441</v>
+        <v>1.394661763886263</v>
       </c>
       <c r="E50">
-        <v>-1.560983772586993</v>
+        <v>1.851957250832997</v>
       </c>
       <c r="F50">
-        <v>-1.357681906772388</v>
+        <v>1.917100410390348</v>
       </c>
       <c r="G50">
-        <v>-1.119421016715998</v>
+        <v>1.361817959569517</v>
       </c>
       <c r="H50">
-        <v>-0.9098207154173681</v>
+        <v>0.8937076639314622</v>
       </c>
       <c r="I50">
-        <v>-0.6169155878034591</v>
+        <v>0.6718375688687542</v>
       </c>
       <c r="J50">
-        <v>-0.4529846179438059</v>
+        <v>0.3738183111936129</v>
       </c>
       <c r="K50">
-        <v>-0.1461770313261375</v>
+        <v>0.2925437575999573</v>
       </c>
       <c r="L50">
-        <v>0.01141874340445703</v>
+        <v>0.3764584795948254</v>
       </c>
       <c r="M50">
-        <v>-0.2246099117432088</v>
+        <v>0.3486470969841649</v>
       </c>
       <c r="N50">
-        <v>-1.056851908086237</v>
+        <v>0.4860814580270392</v>
       </c>
       <c r="O50">
-        <v>-1.106996697195384</v>
+        <v>0.5901545682216612</v>
       </c>
       <c r="P50">
-        <v>-0.8244031813398961</v>
+        <v>0.6794780413702887</v>
       </c>
       <c r="Q50">
-        <v>-0.9129870565907446</v>
+        <v>0.7663851489677018</v>
       </c>
       <c r="R50">
-        <v>-0.7363543018813099</v>
+        <v>0.7306133032549114</v>
       </c>
       <c r="S50">
-        <v>-0.5427434618204768</v>
+        <v>0.654913231107905</v>
       </c>
       <c r="T50">
-        <v>-0.4384705885910484</v>
+        <v>0.3846902430991792</v>
       </c>
       <c r="U50">
-        <v>-0.1748417988129959</v>
+        <v>0.1552008004562709</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -3549,64 +3549,64 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51">
-        <v>3.918367346938775</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>-1.895651697258198</v>
+        <v>1.138404715368684</v>
       </c>
       <c r="D51">
-        <v>-1.733658141941334</v>
+        <v>1.221088925895</v>
       </c>
       <c r="E51">
-        <v>-1.553657484599568</v>
+        <v>1.735488716881101</v>
       </c>
       <c r="F51">
-        <v>-1.376117546533854</v>
+        <v>1.836369109124181</v>
       </c>
       <c r="G51">
-        <v>-1.175179197155902</v>
+        <v>1.442993487135448</v>
       </c>
       <c r="H51">
-        <v>-0.9759884362477352</v>
+        <v>1.113389588390394</v>
       </c>
       <c r="I51">
-        <v>-0.7969223962616296</v>
+        <v>0.7490463026940705</v>
       </c>
       <c r="J51">
-        <v>-0.5660865875208845</v>
+        <v>0.3704670284932558</v>
       </c>
       <c r="K51">
-        <v>-0.4577362548453368</v>
+        <v>0.3593019536730189</v>
       </c>
       <c r="L51">
-        <v>-0.5075182091255102</v>
+        <v>0.3340291736064067</v>
       </c>
       <c r="M51">
-        <v>-1.073855528590319</v>
+        <v>0.3390095161198532</v>
       </c>
       <c r="N51">
-        <v>-1.074816343538363</v>
+        <v>0.5058996125119662</v>
       </c>
       <c r="O51">
-        <v>-0.8010417520284641</v>
+        <v>0.5425013928601728</v>
       </c>
       <c r="P51">
-        <v>-0.8888322774094045</v>
+        <v>0.6932708686554013</v>
       </c>
       <c r="Q51">
-        <v>-0.7899034770326943</v>
+        <v>0.7156497629549473</v>
       </c>
       <c r="R51">
-        <v>-0.5693697372560729</v>
+        <v>0.6629671826981753</v>
       </c>
       <c r="S51">
-        <v>-0.5804713109493335</v>
+        <v>0.5514664670312894</v>
       </c>
       <c r="T51">
-        <v>-0.2715566104940517</v>
+        <v>0.3132807019013439</v>
       </c>
       <c r="U51">
-        <v>-0.2087246653774106</v>
+        <v>0.1105366381964727</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -3614,66 +3614,3121 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52">
+        <v>2.041666666666667</v>
+      </c>
+      <c r="C52">
+        <v>1.074494179737477</v>
+      </c>
+      <c r="D52">
+        <v>1.158900977983091</v>
+      </c>
+      <c r="E52">
+        <v>1.515783978936136</v>
+      </c>
+      <c r="F52">
+        <v>1.631917522021853</v>
+      </c>
+      <c r="G52">
+        <v>1.54217254932286</v>
+      </c>
+      <c r="H52">
+        <v>1.326076419491261</v>
+      </c>
+      <c r="I52">
+        <v>0.8244833266774499</v>
+      </c>
+      <c r="J52">
+        <v>0.462276562585117</v>
+      </c>
+      <c r="K52">
+        <v>0.4243521793791341</v>
+      </c>
+      <c r="L52">
+        <v>0.3011711323257842</v>
+      </c>
+      <c r="M52">
+        <v>0.372389351265332</v>
+      </c>
+      <c r="N52">
+        <v>0.4945462328135961</v>
+      </c>
+      <c r="O52">
+        <v>0.5257648422048951</v>
+      </c>
+      <c r="P52">
+        <v>0.676394430716167</v>
+      </c>
+      <c r="Q52">
+        <v>0.6477957230007144</v>
+      </c>
+      <c r="R52">
+        <v>0.5823340225827132</v>
+      </c>
+      <c r="S52">
+        <v>0.4178038028957775</v>
+      </c>
+      <c r="T52">
+        <v>0.2528296644176459</v>
+      </c>
+      <c r="U52">
+        <v>0.09124840936939589</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="C53">
+        <v>1.081530412166314</v>
+      </c>
+      <c r="D53">
+        <v>1.167659798131226</v>
+      </c>
+      <c r="E53">
+        <v>1.236714846321509</v>
+      </c>
+      <c r="F53">
+        <v>1.376974180856234</v>
+      </c>
+      <c r="G53">
+        <v>1.611072218036058</v>
+      </c>
+      <c r="H53">
+        <v>1.468086902561978</v>
+      </c>
+      <c r="I53">
+        <v>0.9371552248227226</v>
+      </c>
+      <c r="J53">
+        <v>0.6382889572991411</v>
+      </c>
+      <c r="K53">
+        <v>0.4696211670838714</v>
+      </c>
+      <c r="L53">
+        <v>0.3195615158822629</v>
+      </c>
+      <c r="M53">
+        <v>0.4205997560695928</v>
+      </c>
+      <c r="N53">
+        <v>0.4620066387386474</v>
+      </c>
+      <c r="O53">
+        <v>0.5412686990860034</v>
+      </c>
+      <c r="P53">
+        <v>0.6159308721310296</v>
+      </c>
+      <c r="Q53">
+        <v>0.5725147558370645</v>
+      </c>
+      <c r="R53">
+        <v>0.4784839118645103</v>
+      </c>
+      <c r="S53">
+        <v>0.2859740860956528</v>
+      </c>
+      <c r="T53">
+        <v>0.195189558457382</v>
+      </c>
+      <c r="U53">
+        <v>0.09177210126274073</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54">
+        <v>2.125</v>
+      </c>
+      <c r="C54">
+        <v>1.085984011012217</v>
+      </c>
+      <c r="D54">
+        <v>1.173835984696428</v>
+      </c>
+      <c r="E54">
+        <v>0.9774976255264162</v>
+      </c>
+      <c r="F54">
+        <v>1.147647326224015</v>
+      </c>
+      <c r="G54">
+        <v>1.586018513880844</v>
+      </c>
+      <c r="H54">
+        <v>1.513401419066106</v>
+      </c>
+      <c r="I54">
+        <v>1.110592790577725</v>
+      </c>
+      <c r="J54">
+        <v>0.8492135804568638</v>
+      </c>
+      <c r="K54">
+        <v>0.521479000502257</v>
+      </c>
+      <c r="L54">
+        <v>0.4035924384503823</v>
+      </c>
+      <c r="M54">
+        <v>0.45555600865889</v>
+      </c>
+      <c r="N54">
+        <v>0.4409797693251089</v>
+      </c>
+      <c r="O54">
+        <v>0.5575141685180603</v>
+      </c>
+      <c r="P54">
+        <v>0.527400910390937</v>
+      </c>
+      <c r="Q54">
+        <v>0.4863066564349502</v>
+      </c>
+      <c r="R54">
+        <v>0.3515582136030584</v>
+      </c>
+      <c r="S54">
+        <v>0.1819136887718013</v>
+      </c>
+      <c r="T54">
+        <v>0.1362820755181965</v>
+      </c>
+      <c r="U54">
+        <v>0.09719577835103897</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="C55">
+        <v>1.020022649003172</v>
+      </c>
+      <c r="D55">
+        <v>1.109597210406681</v>
+      </c>
+      <c r="E55">
+        <v>0.8131154979306419</v>
+      </c>
+      <c r="F55">
+        <v>0.988217770544711</v>
+      </c>
+      <c r="G55">
+        <v>1.433004774470701</v>
+      </c>
+      <c r="H55">
+        <v>1.47668287224948</v>
+      </c>
+      <c r="I55">
+        <v>1.321775826864181</v>
+      </c>
+      <c r="J55">
+        <v>1.045132777572133</v>
+      </c>
+      <c r="K55">
+        <v>0.6284840743184265</v>
+      </c>
+      <c r="L55">
+        <v>0.5326260537219634</v>
+      </c>
+      <c r="M55">
+        <v>0.4754975454191988</v>
+      </c>
+      <c r="N55">
+        <v>0.4551403052056825</v>
+      </c>
+      <c r="O55">
+        <v>0.5384224526438994</v>
+      </c>
+      <c r="P55">
+        <v>0.4379934667451253</v>
+      </c>
+      <c r="Q55">
+        <v>0.3782342031810482</v>
+      </c>
+      <c r="R55">
+        <v>0.2176952112516362</v>
+      </c>
+      <c r="S55">
+        <v>0.1112741401114915</v>
+      </c>
+      <c r="T55">
+        <v>0.08096900626297897</v>
+      </c>
+      <c r="U55">
+        <v>0.08979741374676931</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="C56">
+        <v>0.8577777452682098</v>
+      </c>
+      <c r="D56">
+        <v>0.9490748943910168</v>
+      </c>
+      <c r="E56">
+        <v>0.7702552624306553</v>
+      </c>
+      <c r="F56">
+        <v>0.899055098363733</v>
+      </c>
+      <c r="G56">
+        <v>1.179931212046134</v>
+      </c>
+      <c r="H56">
+        <v>1.391348222980096</v>
+      </c>
+      <c r="I56">
+        <v>1.503872053022808</v>
+      </c>
+      <c r="J56">
+        <v>1.20733930247433</v>
+      </c>
+      <c r="K56">
+        <v>0.8188042628965932</v>
+      </c>
+      <c r="L56">
+        <v>0.6733599990636804</v>
+      </c>
+      <c r="M56">
+        <v>0.5066532836703104</v>
+      </c>
+      <c r="N56">
+        <v>0.4975057713350519</v>
+      </c>
+      <c r="O56">
+        <v>0.4745748300545325</v>
+      </c>
+      <c r="P56">
+        <v>0.3608176228598806</v>
+      </c>
+      <c r="Q56">
+        <v>0.2464804979098114</v>
+      </c>
+      <c r="R56">
+        <v>0.09949150754048157</v>
+      </c>
+      <c r="S56">
+        <v>0.06188457927365205</v>
+      </c>
+      <c r="T56">
+        <v>0.03751782188427949</v>
+      </c>
+      <c r="U56">
+        <v>0.0592801697561099</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57">
+        <v>2.25</v>
+      </c>
+      <c r="C57">
+        <v>0.6286904152064171</v>
+      </c>
+      <c r="D57">
+        <v>0.7217101520485224</v>
+      </c>
+      <c r="E57">
+        <v>0.8072783696983798</v>
+      </c>
+      <c r="F57">
+        <v>0.8502918227281677</v>
+      </c>
+      <c r="G57">
+        <v>0.9110146885745006</v>
+      </c>
+      <c r="H57">
+        <v>1.282710192284077</v>
+      </c>
+      <c r="I57">
+        <v>1.583915368740918</v>
+      </c>
+      <c r="J57">
+        <v>1.348018905548388</v>
+      </c>
+      <c r="K57">
+        <v>1.07270361340993</v>
+      </c>
+      <c r="L57">
+        <v>0.8105545984329033</v>
+      </c>
+      <c r="M57">
+        <v>0.5796904702156601</v>
+      </c>
+      <c r="N57">
+        <v>0.538251588633011</v>
+      </c>
+      <c r="O57">
+        <v>0.389552032704306</v>
+      </c>
+      <c r="P57">
+        <v>0.285391567785409</v>
+      </c>
+      <c r="Q57">
+        <v>0.1083388490977151</v>
+      </c>
+      <c r="R57">
+        <v>0.0109735543572083</v>
+      </c>
+      <c r="S57">
+        <v>0.01777074126786993</v>
+      </c>
+      <c r="T57">
+        <v>0.007697301444682002</v>
+      </c>
+      <c r="U57">
+        <v>0.01010140420613956</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="C58">
+        <v>0.3994614480579298</v>
+      </c>
+      <c r="D58">
+        <v>0.4942037726193333</v>
+      </c>
+      <c r="E58">
+        <v>0.8352600933354121</v>
+      </c>
+      <c r="F58">
+        <v>0.8078048916256535</v>
+      </c>
+      <c r="G58">
+        <v>0.7228598895119742</v>
+      </c>
+      <c r="H58">
+        <v>1.15797842118364</v>
+      </c>
+      <c r="I58">
+        <v>1.529386364736528</v>
+      </c>
+      <c r="J58">
+        <v>1.480520583644945</v>
+      </c>
+      <c r="K58">
+        <v>1.331790345635733</v>
+      </c>
+      <c r="L58">
+        <v>0.9575487025409501</v>
+      </c>
+      <c r="M58">
+        <v>0.7026956964247678</v>
+      </c>
+      <c r="N58">
+        <v>0.5536341843897001</v>
+      </c>
+      <c r="O58">
+        <v>0.3177225846953134</v>
+      </c>
+      <c r="P58">
+        <v>0.1933456866259023</v>
+      </c>
+      <c r="Q58">
+        <v>-0.007670062289264977</v>
+      </c>
+      <c r="R58">
+        <v>-0.04919117579794884</v>
+      </c>
+      <c r="S58">
+        <v>-0.02872097107458474</v>
+      </c>
+      <c r="T58">
+        <v>-0.01704542322788962</v>
+      </c>
+      <c r="U58">
+        <v>-0.04034198731815535</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="C59">
+        <v>0.2345316501786103</v>
+      </c>
+      <c r="D59">
+        <v>0.330996562459312</v>
+      </c>
+      <c r="E59">
+        <v>0.7714255601010358</v>
+      </c>
+      <c r="F59">
+        <v>0.7524964040062048</v>
+      </c>
+      <c r="G59">
+        <v>0.6685611816377839</v>
+      </c>
+      <c r="H59">
+        <v>1.018871683848591</v>
+      </c>
+      <c r="I59">
+        <v>1.369948996393449</v>
+      </c>
+      <c r="J59">
+        <v>1.589490812202496</v>
+      </c>
+      <c r="K59">
+        <v>1.535450076789141</v>
+      </c>
+      <c r="L59">
+        <v>1.136710589405248</v>
+      </c>
+      <c r="M59">
+        <v>0.8544256763994715</v>
+      </c>
+      <c r="N59">
+        <v>0.5488309846154144</v>
+      </c>
+      <c r="O59">
+        <v>0.2760934026115672</v>
+      </c>
+      <c r="P59">
+        <v>0.08372226571980691</v>
+      </c>
+      <c r="Q59">
+        <v>-0.08128649549547196</v>
+      </c>
+      <c r="R59">
+        <v>-0.09171843378308034</v>
+      </c>
+      <c r="S59">
+        <v>-0.0755466842086612</v>
+      </c>
+      <c r="T59">
+        <v>-0.04876681708391049</v>
+      </c>
+      <c r="U59">
+        <v>-0.07272106632470106</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60">
+        <v>2.375</v>
+      </c>
+      <c r="C60">
+        <v>0.1586977881868039</v>
+      </c>
+      <c r="D60">
+        <v>0.2568852881868038</v>
+      </c>
+      <c r="E60">
+        <v>0.5927039799229925</v>
+      </c>
+      <c r="F60">
+        <v>0.6824559870429633</v>
+      </c>
+      <c r="G60">
+        <v>0.7263236974373699</v>
+      </c>
+      <c r="H60">
+        <v>0.8817606570982919</v>
+      </c>
+      <c r="I60">
+        <v>1.178922387056772</v>
+      </c>
+      <c r="J60">
+        <v>1.630811734788542</v>
+      </c>
+      <c r="K60">
+        <v>1.653412065573892</v>
+      </c>
+      <c r="L60">
+        <v>1.347290527219664</v>
+      </c>
+      <c r="M60">
+        <v>1.002091284441732</v>
+      </c>
+      <c r="N60">
+        <v>0.5542350989581057</v>
+      </c>
+      <c r="O60">
+        <v>0.2567438445821102</v>
+      </c>
+      <c r="P60">
+        <v>-0.01707459146807829</v>
+      </c>
+      <c r="Q60">
+        <v>-0.1137655757148374</v>
+      </c>
+      <c r="R60">
+        <v>-0.1256010786824652</v>
+      </c>
+      <c r="S60">
+        <v>-0.1177859042786949</v>
+      </c>
+      <c r="T60">
+        <v>-0.09147627201539935</v>
+      </c>
+      <c r="U60">
+        <v>-0.07865330036777603</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61">
+        <v>2.416666666666667</v>
+      </c>
+      <c r="C61">
+        <v>0.1449570661173257</v>
+      </c>
+      <c r="D61">
+        <v>0.2448671538366239</v>
+      </c>
+      <c r="E61">
+        <v>0.3532576574072875</v>
+      </c>
+      <c r="F61">
+        <v>0.6025378186716487</v>
+      </c>
+      <c r="G61">
+        <v>0.8142045999941703</v>
+      </c>
+      <c r="H61">
+        <v>0.7824376593348151</v>
+      </c>
+      <c r="I61">
+        <v>1.028997261458812</v>
+      </c>
+      <c r="J61">
+        <v>1.564939534298106</v>
+      </c>
+      <c r="K61">
+        <v>1.689729444887849</v>
+      </c>
+      <c r="L61">
+        <v>1.549788073051046</v>
+      </c>
+      <c r="M61">
+        <v>1.125538195463508</v>
+      </c>
+      <c r="N61">
+        <v>0.5996813472004104</v>
+      </c>
+      <c r="O61">
+        <v>0.245271572559844</v>
+      </c>
+      <c r="P61">
+        <v>-0.07101922988887516</v>
+      </c>
+      <c r="Q61">
+        <v>-0.1228184262708784</v>
+      </c>
+      <c r="R61">
+        <v>-0.1526109964895756</v>
+      </c>
+      <c r="S61">
+        <v>-0.1534423571871103</v>
+      </c>
+      <c r="T61">
+        <v>-0.1357216427963597</v>
+      </c>
+      <c r="U61">
+        <v>-0.06597805547227582</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="C62">
+        <v>0.1351182486392008</v>
+      </c>
+      <c r="D62">
+        <v>0.2367509240777973</v>
+      </c>
+      <c r="E62">
+        <v>0.1513495245515881</v>
+      </c>
+      <c r="F62">
+        <v>0.5148406694849567</v>
+      </c>
+      <c r="G62">
+        <v>0.8420521260439204</v>
+      </c>
+      <c r="H62">
+        <v>0.7555889036206442</v>
+      </c>
+      <c r="I62">
+        <v>0.9543650118828003</v>
+      </c>
+      <c r="J62">
+        <v>1.396476388093824</v>
+      </c>
+      <c r="K62">
+        <v>1.660648147423992</v>
+      </c>
+      <c r="L62">
+        <v>1.681924858653948</v>
+      </c>
+      <c r="M62">
+        <v>1.225028388944923</v>
+      </c>
+      <c r="N62">
+        <v>0.6905183549794242</v>
+      </c>
+      <c r="O62">
+        <v>0.2453397608671034</v>
+      </c>
+      <c r="P62">
+        <v>-0.05593189303268022</v>
+      </c>
+      <c r="Q62">
+        <v>-0.1244107199874214</v>
+      </c>
+      <c r="R62">
+        <v>-0.1703898430606621</v>
+      </c>
+      <c r="S62">
+        <v>-0.182507539687934</v>
+      </c>
+      <c r="T62">
+        <v>-0.164873626495484</v>
+      </c>
+      <c r="U62">
+        <v>-0.05237485444190411</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63">
+        <v>2.5</v>
+      </c>
+      <c r="C63">
+        <v>0.07953174421124203</v>
+      </c>
+      <c r="D63">
+        <v>0.1828870073691368</v>
+      </c>
+      <c r="E63">
+        <v>0.06519305839034528</v>
+      </c>
+      <c r="F63">
+        <v>0.4197017294392083</v>
+      </c>
+      <c r="G63">
+        <v>0.7666331952171519</v>
+      </c>
+      <c r="H63">
+        <v>0.8029673924013038</v>
+      </c>
+      <c r="I63">
+        <v>0.9433294415116035</v>
+      </c>
+      <c r="J63">
+        <v>1.184641192198334</v>
+      </c>
+      <c r="K63">
+        <v>1.571709557703843</v>
+      </c>
+      <c r="L63">
+        <v>1.694466641631828</v>
+      </c>
+      <c r="M63">
+        <v>1.306650306455051</v>
+      </c>
+      <c r="N63">
+        <v>0.8058888338093121</v>
+      </c>
+      <c r="O63">
+        <v>0.283807205960298</v>
+      </c>
+      <c r="P63">
+        <v>0.02013247535594243</v>
+      </c>
+      <c r="Q63">
+        <v>-0.1184227973299957</v>
+      </c>
+      <c r="R63">
+        <v>-0.177698988869774</v>
+      </c>
+      <c r="S63">
+        <v>-0.2021433118790424</v>
+      </c>
+      <c r="T63">
+        <v>-0.1680588791046581</v>
+      </c>
+      <c r="U63">
+        <v>-0.05216142908397498</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64">
+        <v>2.541666666666667</v>
+      </c>
+      <c r="C64">
+        <v>-0.03044075595821283</v>
+      </c>
+      <c r="D64">
+        <v>0.07463709491898014</v>
+      </c>
+      <c r="E64">
+        <v>0.1007066789394447</v>
+      </c>
+      <c r="F64">
+        <v>0.3244082998998341</v>
+      </c>
+      <c r="G64">
+        <v>0.6141214707900744</v>
+      </c>
+      <c r="H64">
+        <v>0.8785538156104312</v>
+      </c>
+      <c r="I64">
+        <v>0.9597302885833371</v>
+      </c>
+      <c r="J64">
+        <v>1.011630419751967</v>
+      </c>
+      <c r="K64">
+        <v>1.417471649389503</v>
+      </c>
+      <c r="L64">
+        <v>1.579181742757567</v>
+      </c>
+      <c r="M64">
+        <v>1.361427543529699</v>
+      </c>
+      <c r="N64">
+        <v>0.9176892479073839</v>
+      </c>
+      <c r="O64">
+        <v>0.389745240238632</v>
+      </c>
+      <c r="P64">
+        <v>0.1298261070300745</v>
+      </c>
+      <c r="Q64">
+        <v>-0.09044138865229116</v>
+      </c>
+      <c r="R64">
+        <v>-0.1742975001951782</v>
+      </c>
+      <c r="S64">
+        <v>-0.2050476227023577</v>
+      </c>
+      <c r="T64">
+        <v>-0.1485975314047002</v>
+      </c>
+      <c r="U64">
+        <v>-0.06626083560632567</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="C65">
+        <v>-0.1587297325358709</v>
+      </c>
+      <c r="D65">
+        <v>-0.05192929393937971</v>
+      </c>
+      <c r="E65">
+        <v>0.1881648160413162</v>
+      </c>
+      <c r="F65">
+        <v>0.2476461928066694</v>
+      </c>
+      <c r="G65">
+        <v>0.4569686043385838</v>
+      </c>
+      <c r="H65">
+        <v>0.9093928961531209</v>
+      </c>
+      <c r="I65">
+        <v>0.9704952023509246</v>
+      </c>
+      <c r="J65">
+        <v>0.9303075371381817</v>
+      </c>
+      <c r="K65">
+        <v>1.203055556363108</v>
+      </c>
+      <c r="L65">
+        <v>1.369360329535741</v>
+      </c>
+      <c r="M65">
+        <v>1.360650800786138</v>
+      </c>
+      <c r="N65">
+        <v>1.009945990994661</v>
+      </c>
+      <c r="O65">
+        <v>0.5655915892386596</v>
+      </c>
+      <c r="P65">
+        <v>0.2514403355315459</v>
+      </c>
+      <c r="Q65">
+        <v>-0.02596338472247273</v>
+      </c>
+      <c r="R65">
+        <v>-0.1555501102397844</v>
+      </c>
+      <c r="S65">
+        <v>-0.183945029476731</v>
+      </c>
+      <c r="T65">
+        <v>-0.1206970795656535</v>
+      </c>
+      <c r="U65">
+        <v>-0.08257577796789972</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66">
+        <v>2.625</v>
+      </c>
+      <c r="C66">
+        <v>-0.2514235201719139</v>
+      </c>
+      <c r="D66">
+        <v>-0.1429004938561244</v>
+      </c>
+      <c r="E66">
+        <v>0.2315148391973399</v>
+      </c>
+      <c r="F66">
+        <v>0.2107018142621394</v>
+      </c>
+      <c r="G66">
+        <v>0.3633261561961544</v>
+      </c>
+      <c r="H66">
+        <v>0.8426460254004426</v>
+      </c>
+      <c r="I66">
+        <v>0.9573344427629878</v>
+      </c>
+      <c r="J66">
+        <v>0.9302566729794368</v>
+      </c>
+      <c r="K66">
+        <v>0.9634225538257835</v>
+      </c>
+      <c r="L66">
+        <v>1.116916955606491</v>
+      </c>
+      <c r="M66">
+        <v>1.274856177211565</v>
+      </c>
+      <c r="N66">
+        <v>1.080256654438181</v>
+      </c>
+      <c r="O66">
+        <v>0.7763432244540942</v>
+      </c>
+      <c r="P66">
+        <v>0.3842329842943122</v>
+      </c>
+      <c r="Q66">
+        <v>0.07790266295364658</v>
+      </c>
+      <c r="R66">
+        <v>-0.1092509331023971</v>
+      </c>
+      <c r="S66">
+        <v>-0.1377125484380073</v>
+      </c>
+      <c r="T66">
+        <v>-0.09731714381816776</v>
+      </c>
+      <c r="U66">
+        <v>-0.08574047151255376</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C67">
+        <v>-0.2748503496862516</v>
+      </c>
+      <c r="D67">
+        <v>-0.1646047356511639</v>
+      </c>
+      <c r="E67">
+        <v>0.1762562570186232</v>
+      </c>
+      <c r="F67">
+        <v>0.2195659737462139</v>
+      </c>
+      <c r="G67">
+        <v>0.3544202906335206</v>
+      </c>
+      <c r="H67">
+        <v>0.6850889548005297</v>
+      </c>
+      <c r="I67">
+        <v>0.909967007331839</v>
+      </c>
+      <c r="J67">
+        <v>0.947306222487647</v>
+      </c>
+      <c r="K67">
+        <v>0.7561560750200528</v>
+      </c>
+      <c r="L67">
+        <v>0.8674201232491622</v>
+      </c>
+      <c r="M67">
+        <v>1.101362481666512</v>
+      </c>
+      <c r="N67">
+        <v>1.124639380113718</v>
+      </c>
+      <c r="O67">
+        <v>0.966535205919569</v>
+      </c>
+      <c r="P67">
+        <v>0.5406508583950905</v>
+      </c>
+      <c r="Q67">
+        <v>0.213879123207056</v>
+      </c>
+      <c r="R67">
+        <v>-0.02080318767703243</v>
+      </c>
+      <c r="S67">
+        <v>-0.07214141019880642</v>
+      </c>
+      <c r="T67">
+        <v>-0.07940035726455036</v>
+      </c>
+      <c r="U67">
+        <v>-0.06821562440437084</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68">
+        <v>2.708333333333333</v>
+      </c>
+      <c r="C68">
+        <v>-0.2379688762296951</v>
+      </c>
+      <c r="D68">
+        <v>-0.1260006744753092</v>
+      </c>
+      <c r="E68">
+        <v>0.04719244774376546</v>
+      </c>
+      <c r="F68">
+        <v>0.2534415543497114</v>
+      </c>
+      <c r="G68">
+        <v>0.3970133477321048</v>
+      </c>
+      <c r="H68">
+        <v>0.502449936156714</v>
+      </c>
+      <c r="I68">
+        <v>0.8167670128788113</v>
+      </c>
+      <c r="J68">
+        <v>0.9081324231435555</v>
+      </c>
+      <c r="K68">
+        <v>0.6274920633748909</v>
+      </c>
+      <c r="L68">
+        <v>0.6508907956409302</v>
+      </c>
+      <c r="M68">
+        <v>0.8761934959526128</v>
+      </c>
+      <c r="N68">
+        <v>1.124789494759985</v>
+      </c>
+      <c r="O68">
+        <v>1.090559883177209</v>
+      </c>
+      <c r="P68">
+        <v>0.7240753416490971</v>
+      </c>
+      <c r="Q68">
+        <v>0.3750829186318234</v>
+      </c>
+      <c r="R68">
+        <v>0.1160486434955617</v>
+      </c>
+      <c r="S68">
+        <v>0.006471534356312942</v>
+      </c>
+      <c r="T68">
+        <v>-0.05494972488248387</v>
+      </c>
+      <c r="U68">
+        <v>-0.03435688584886044</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69">
+        <v>2.75</v>
+      </c>
+      <c r="C69">
+        <v>-0.1837946248870615</v>
+      </c>
+      <c r="D69">
+        <v>-0.07010383541337727</v>
+      </c>
+      <c r="E69">
+        <v>-0.07172271988906828</v>
+      </c>
+      <c r="F69">
+        <v>0.2731641728314605</v>
+      </c>
+      <c r="G69">
+        <v>0.4316944760517414</v>
+      </c>
+      <c r="H69">
+        <v>0.374634878398502</v>
+      </c>
+      <c r="I69">
+        <v>0.6687394523117698</v>
+      </c>
+      <c r="J69">
+        <v>0.7762880319241091</v>
+      </c>
+      <c r="K69">
+        <v>0.5778402455413371</v>
+      </c>
+      <c r="L69">
+        <v>0.4874443949333919</v>
+      </c>
+      <c r="M69">
+        <v>0.658757401381122</v>
+      </c>
+      <c r="N69">
+        <v>1.054942372568321</v>
+      </c>
+      <c r="O69">
+        <v>1.132040536522472</v>
+      </c>
+      <c r="P69">
+        <v>0.9137755137213123</v>
+      </c>
+      <c r="Q69">
+        <v>0.5609685066936655</v>
+      </c>
+      <c r="R69">
+        <v>0.2926948244208227</v>
+      </c>
+      <c r="S69">
+        <v>0.09915691567228306</v>
+      </c>
+      <c r="T69">
+        <v>-0.007826786643356693</v>
+      </c>
+      <c r="U69">
+        <v>0.004843824354055739</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70">
+        <v>2.791666666666667</v>
+      </c>
+      <c r="C70">
+        <v>-0.1571572919361703</v>
+      </c>
+      <c r="D70">
+        <v>-0.04174391474318787</v>
+      </c>
+      <c r="E70">
+        <v>-0.1008923250916188</v>
+      </c>
+      <c r="F70">
+        <v>0.2473255125537082</v>
+      </c>
+      <c r="G70">
+        <v>0.4133992312831963</v>
+      </c>
+      <c r="H70">
+        <v>0.3377735829893019</v>
+      </c>
+      <c r="I70">
+        <v>0.4751245128517841</v>
+      </c>
+      <c r="J70">
+        <v>0.5685330468585912</v>
+      </c>
+      <c r="K70">
+        <v>0.5574287194253489</v>
+      </c>
+      <c r="L70">
+        <v>0.3922647497675222</v>
+      </c>
+      <c r="M70">
+        <v>0.5002398970934699</v>
+      </c>
+      <c r="N70">
+        <v>0.9058862444104465</v>
+      </c>
+      <c r="O70">
+        <v>1.100341689646535</v>
+      </c>
+      <c r="P70">
+        <v>1.071139741155867</v>
+      </c>
+      <c r="Q70">
+        <v>0.7701541557255029</v>
+      </c>
+      <c r="R70">
+        <v>0.4901562666016702</v>
+      </c>
+      <c r="S70">
+        <v>0.2156612491079192</v>
+      </c>
+      <c r="T70">
+        <v>0.07152237304620357</v>
+      </c>
+      <c r="U70">
+        <v>0.04143911189421415</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="C71">
+        <v>-0.1731037606423114</v>
+      </c>
+      <c r="D71">
+        <v>-0.05596779573003075</v>
+      </c>
+      <c r="E71">
+        <v>-0.02486213120710097</v>
+      </c>
+      <c r="F71">
+        <v>0.1769942246754655</v>
+      </c>
+      <c r="G71">
+        <v>0.3354959459180786</v>
+      </c>
+      <c r="H71">
+        <v>0.356772847421196</v>
+      </c>
+      <c r="I71">
+        <v>0.2721355264976299</v>
+      </c>
+      <c r="J71">
+        <v>0.3360299578579162</v>
+      </c>
+      <c r="K71">
+        <v>0.4996940131454903</v>
+      </c>
+      <c r="L71">
+        <v>0.3682515258014923</v>
+      </c>
+      <c r="M71">
+        <v>0.4191244766788146</v>
+      </c>
+      <c r="N71">
+        <v>0.705016845466262</v>
+      </c>
+      <c r="O71">
+        <v>1.013668725919825</v>
+      </c>
+      <c r="P71">
+        <v>1.161312958502407</v>
+      </c>
+      <c r="Q71">
+        <v>0.9864990641381014</v>
+      </c>
+      <c r="R71">
+        <v>0.6908478076371196</v>
+      </c>
+      <c r="S71">
+        <v>0.3671034178326191</v>
+      </c>
+      <c r="T71">
+        <v>0.1816717312538462</v>
+      </c>
+      <c r="U71">
+        <v>0.07698856241099122</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72">
+        <v>2.875</v>
+      </c>
+      <c r="C72">
+        <v>-0.2091526254955574</v>
+      </c>
+      <c r="D72">
+        <v>-0.09029407286397839</v>
+      </c>
+      <c r="E72">
+        <v>0.09628085070828682</v>
+      </c>
+      <c r="F72">
+        <v>0.09741358777969095</v>
+      </c>
+      <c r="G72">
+        <v>0.2245136085539249</v>
+      </c>
+      <c r="H72">
+        <v>0.3506516376920757</v>
+      </c>
+      <c r="I72">
+        <v>0.1086475335862722</v>
+      </c>
+      <c r="J72">
+        <v>0.1306521270255162</v>
+      </c>
+      <c r="K72">
+        <v>0.3688160152552905</v>
+      </c>
+      <c r="L72">
+        <v>0.3923380698694455</v>
+      </c>
+      <c r="M72">
+        <v>0.399498235177646</v>
+      </c>
+      <c r="N72">
+        <v>0.5117404236494041</v>
+      </c>
+      <c r="O72">
+        <v>0.8879274780087485</v>
+      </c>
+      <c r="P72">
+        <v>1.171423183972415</v>
+      </c>
+      <c r="Q72">
+        <v>1.173984257826567</v>
+      </c>
+      <c r="R72">
+        <v>0.8862341121419868</v>
+      </c>
+      <c r="S72">
+        <v>0.5554998769831613</v>
+      </c>
+      <c r="T72">
+        <v>0.3141591491748485</v>
+      </c>
+      <c r="U72">
+        <v>0.1214045240799801</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73">
+        <v>2.916666666666667</v>
+      </c>
+      <c r="C73">
+        <v>-0.2262616760468008</v>
+      </c>
+      <c r="D73">
+        <v>-0.1056805356959236</v>
+      </c>
+      <c r="E73">
+        <v>0.1720840864211507</v>
+      </c>
+      <c r="F73">
+        <v>0.05158035052597618</v>
+      </c>
+      <c r="G73">
+        <v>0.1150536019681067</v>
+      </c>
+      <c r="H73">
+        <v>0.2528180032071764</v>
+      </c>
+      <c r="I73">
+        <v>0.01398293019001142</v>
+      </c>
+      <c r="J73">
+        <v>-0.0180465551963423</v>
+      </c>
+      <c r="K73">
+        <v>0.1852255365943076</v>
+      </c>
+      <c r="L73">
+        <v>0.4140694106663722</v>
+      </c>
+      <c r="M73">
+        <v>0.4083618357691574</v>
+      </c>
+      <c r="N73">
+        <v>0.3873006070937595</v>
+      </c>
+      <c r="O73">
+        <v>0.7404628896784387</v>
+      </c>
+      <c r="P73">
+        <v>1.112011408108934</v>
+      </c>
+      <c r="Q73">
+        <v>1.289569762495836</v>
+      </c>
+      <c r="R73">
+        <v>1.072529979162747</v>
+      </c>
+      <c r="S73">
+        <v>0.7684241756544442</v>
+      </c>
+      <c r="T73">
+        <v>0.4608133371684274</v>
+      </c>
+      <c r="U73">
+        <v>0.1857689210861445</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74">
+        <v>2.958333333333333</v>
+      </c>
+      <c r="C74">
+        <v>-0.201711886317318</v>
+      </c>
+      <c r="D74">
+        <v>-0.07940815824714256</v>
+      </c>
+      <c r="E74">
+        <v>0.1485017133356383</v>
+      </c>
+      <c r="F74">
+        <v>0.05422459756003293</v>
+      </c>
+      <c r="G74">
+        <v>0.02622451808796405</v>
+      </c>
+      <c r="H74">
+        <v>0.06112274038361129</v>
+      </c>
+      <c r="I74">
+        <v>-0.02638630769130808</v>
+      </c>
+      <c r="J74">
+        <v>-0.105207181082811</v>
+      </c>
+      <c r="K74">
+        <v>0.0099202408074575</v>
+      </c>
+      <c r="L74">
+        <v>0.378035737083849</v>
+      </c>
+      <c r="M74">
+        <v>0.4151289347312904</v>
+      </c>
+      <c r="N74">
+        <v>0.3596986086402161</v>
+      </c>
+      <c r="O74">
+        <v>0.5994788727562727</v>
+      </c>
+      <c r="P74">
+        <v>1.005152999623938</v>
+      </c>
+      <c r="Q74">
+        <v>1.306769371596466</v>
+      </c>
+      <c r="R74">
+        <v>1.238537584922393</v>
+      </c>
+      <c r="S74">
+        <v>0.9822818741340976</v>
+      </c>
+      <c r="T74">
+        <v>0.6175624641933809</v>
+      </c>
+      <c r="U74">
+        <v>0.274629919887398</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>-0.1486011465042391</v>
+      </c>
+      <c r="D75">
+        <v>-0.02457483071476545</v>
+      </c>
+      <c r="E75">
+        <v>0.04485328418633274</v>
+      </c>
+      <c r="F75">
+        <v>0.07545661554227232</v>
+      </c>
+      <c r="G75">
+        <v>-0.04486794538700273</v>
+      </c>
+      <c r="H75">
+        <v>-0.1598858766869058</v>
+      </c>
+      <c r="I75">
+        <v>-0.06277200929562042</v>
+      </c>
+      <c r="J75">
+        <v>-0.1413330445322251</v>
+      </c>
+      <c r="K75">
+        <v>-0.09935187397540911</v>
+      </c>
+      <c r="L75">
+        <v>0.2597366809816654</v>
+      </c>
+      <c r="M75">
+        <v>0.4002002536932815</v>
+      </c>
+      <c r="N75">
+        <v>0.4088669277515039</v>
+      </c>
+      <c r="O75">
+        <v>0.5024305413736629</v>
+      </c>
+      <c r="P75">
+        <v>0.8736822247636404</v>
+      </c>
+      <c r="Q75">
+        <v>1.231864744609533</v>
+      </c>
+      <c r="R75">
+        <v>1.358616127989489</v>
+      </c>
+      <c r="S75">
+        <v>1.170416128360429</v>
+      </c>
+      <c r="T75">
+        <v>0.7816655342990719</v>
+      </c>
+      <c r="U75">
+        <v>0.3826579895298384</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76">
+        <v>3.041666666666667</v>
+      </c>
+      <c r="C76">
+        <v>-0.1076121546753891</v>
+      </c>
+      <c r="D76">
+        <v>0.01813674883338279</v>
+      </c>
+      <c r="E76">
+        <v>-0.06690457935448707</v>
+      </c>
+      <c r="F76">
+        <v>0.06011836223325091</v>
+      </c>
+      <c r="G76">
+        <v>-0.112849804724757</v>
+      </c>
+      <c r="H76">
+        <v>-0.3252561727406332</v>
+      </c>
+      <c r="I76">
+        <v>-0.1419931465113409</v>
+      </c>
+      <c r="J76">
+        <v>-0.1450668704170654</v>
+      </c>
+      <c r="K76">
+        <v>-0.1263104708074966</v>
+      </c>
+      <c r="L76">
+        <v>0.08771210856795371</v>
+      </c>
+      <c r="M76">
+        <v>0.3536000879926153</v>
+      </c>
+      <c r="N76">
+        <v>0.4813955803925777</v>
+      </c>
+      <c r="O76">
+        <v>0.4777040437201006</v>
+      </c>
+      <c r="P76">
+        <v>0.7407016894492352</v>
+      </c>
+      <c r="Q76">
+        <v>1.100002369353921</v>
+      </c>
+      <c r="R76">
+        <v>1.400530221381757</v>
+      </c>
+      <c r="S76">
+        <v>1.30943890604383</v>
+      </c>
+      <c r="T76">
+        <v>0.9449818381677884</v>
+      </c>
+      <c r="U76">
+        <v>0.4966566146622989</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="C77">
+        <v>-0.1184087072022185</v>
+      </c>
+      <c r="D77">
+        <v>0.009062784025851631</v>
+      </c>
+      <c r="E77">
+        <v>-0.1230614871673167</v>
+      </c>
+      <c r="F77">
+        <v>-0.02964421370020431</v>
+      </c>
+      <c r="G77">
+        <v>-0.1890846932627567</v>
+      </c>
+      <c r="H77">
+        <v>-0.3883818377406666</v>
+      </c>
+      <c r="I77">
+        <v>-0.2667588071587803</v>
+      </c>
+      <c r="J77">
+        <v>-0.1414775269184821</v>
+      </c>
+      <c r="K77">
+        <v>-0.1018980714867508</v>
+      </c>
+      <c r="L77">
+        <v>-0.06935174928830072</v>
+      </c>
+      <c r="M77">
+        <v>0.2737272417846808</v>
+      </c>
+      <c r="N77">
+        <v>0.5223331952145276</v>
+      </c>
+      <c r="O77">
+        <v>0.5225034815859102</v>
+      </c>
+      <c r="P77">
+        <v>0.6339824724762886</v>
+      </c>
+      <c r="Q77">
+        <v>0.9550241224510979</v>
+      </c>
+      <c r="R77">
+        <v>1.344807592275066</v>
+      </c>
+      <c r="S77">
+        <v>1.380856193288434</v>
+      </c>
+      <c r="T77">
+        <v>1.088815155853978</v>
+      </c>
+      <c r="U77">
+        <v>0.600197297085335</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78">
+        <v>3.125</v>
+      </c>
+      <c r="C78">
+        <v>-0.193384783789966</v>
+      </c>
+      <c r="D78">
+        <v>-0.06419070484259755</v>
+      </c>
+      <c r="E78">
+        <v>-0.1201955446027367</v>
+      </c>
+      <c r="F78">
+        <v>-0.1818628307856472</v>
+      </c>
+      <c r="G78">
+        <v>-0.2736799299429765</v>
+      </c>
+      <c r="H78">
+        <v>-0.3682460461472197</v>
+      </c>
+      <c r="I78">
+        <v>-0.3888230688434195</v>
+      </c>
+      <c r="J78">
+        <v>-0.1578735298273698</v>
+      </c>
+      <c r="K78">
+        <v>-0.07748870304100494</v>
+      </c>
+      <c r="L78">
+        <v>-0.1457709381460105</v>
+      </c>
+      <c r="M78">
+        <v>0.1716560815045598</v>
+      </c>
+      <c r="N78">
+        <v>0.5019791894088833</v>
+      </c>
+      <c r="O78">
+        <v>0.5973687071688814</v>
+      </c>
+      <c r="P78">
+        <v>0.5822829501541864</v>
+      </c>
+      <c r="Q78">
+        <v>0.8293081931942282</v>
+      </c>
+      <c r="R78">
+        <v>1.201065536986647</v>
+      </c>
+      <c r="S78">
+        <v>1.370768220768923</v>
+      </c>
+      <c r="T78">
+        <v>1.184540966234549</v>
+      </c>
+      <c r="U78">
+        <v>0.6772155476792843</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="C79">
+        <v>-0.3136482534054812</v>
+      </c>
+      <c r="D79">
+        <v>-0.1827315867388146</v>
+      </c>
+      <c r="E79">
+        <v>-0.117019372314486</v>
+      </c>
+      <c r="F79">
+        <v>-0.3399836384370472</v>
+      </c>
+      <c r="G79">
+        <v>-0.3572133828262696</v>
+      </c>
+      <c r="H79">
+        <v>-0.3275559054903429</v>
+      </c>
+      <c r="I79">
+        <v>-0.4452435554799181</v>
+      </c>
+      <c r="J79">
+        <v>-0.2107279103917477</v>
+      </c>
+      <c r="K79">
+        <v>-0.08905089969536588</v>
+      </c>
+      <c r="L79">
+        <v>-0.1224571701817364</v>
+      </c>
+      <c r="M79">
+        <v>0.0746497098633557</v>
+      </c>
+      <c r="N79">
+        <v>0.4237598333000939</v>
+      </c>
+      <c r="O79">
+        <v>0.6459771305294019</v>
+      </c>
+      <c r="P79">
+        <v>0.5989445480672381</v>
+      </c>
+      <c r="Q79">
+        <v>0.7370699428940836</v>
+      </c>
+      <c r="R79">
+        <v>1.007818892612662</v>
+      </c>
+      <c r="S79">
+        <v>1.272102184784859</v>
+      </c>
+      <c r="T79">
+        <v>1.200535159122344</v>
+      </c>
+      <c r="U79">
+        <v>0.7129008051551138</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80">
+        <v>3.208333333333333</v>
+      </c>
+      <c r="C80">
+        <v>-0.4487278813236145</v>
+      </c>
+      <c r="D80">
+        <v>-0.3160886269376496</v>
+      </c>
+      <c r="E80">
+        <v>-0.1854022497302386</v>
+      </c>
+      <c r="F80">
+        <v>-0.4441067317182639</v>
+      </c>
+      <c r="G80">
+        <v>-0.4270813593096669</v>
+      </c>
+      <c r="H80">
+        <v>-0.3225183869938146</v>
+      </c>
+      <c r="I80">
+        <v>-0.4104557661338066</v>
+      </c>
+      <c r="J80">
+        <v>-0.2904621145562793</v>
+      </c>
+      <c r="K80">
+        <v>-0.1382158350199191</v>
+      </c>
+      <c r="L80">
+        <v>-0.03882307855350129</v>
+      </c>
+      <c r="M80">
+        <v>0.01803090108027997</v>
+      </c>
+      <c r="N80">
+        <v>0.3151087198261801</v>
+      </c>
+      <c r="O80">
+        <v>0.6280069140551783</v>
+      </c>
+      <c r="P80">
+        <v>0.6644231338559177</v>
+      </c>
+      <c r="Q80">
+        <v>0.6803105984621398</v>
+      </c>
+      <c r="R80">
+        <v>0.8147328471388329</v>
+      </c>
+      <c r="S80">
+        <v>1.089954223923367</v>
+      </c>
+      <c r="T80">
+        <v>1.112678251136782</v>
+      </c>
+      <c r="U80">
+        <v>0.6931877905497947</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81">
+        <v>3.25</v>
+      </c>
+      <c r="C81">
+        <v>-0.5825617535116088</v>
+      </c>
+      <c r="D81">
+        <v>-0.4481999114063456</v>
+      </c>
+      <c r="E81">
+        <v>-0.3509201302599099</v>
+      </c>
+      <c r="F81">
+        <v>-0.4764581485676018</v>
+      </c>
+      <c r="G81">
+        <v>-0.4729620031352469</v>
+      </c>
+      <c r="H81">
+        <v>-0.3646013914693919</v>
+      </c>
+      <c r="I81">
+        <v>-0.3210976669673774</v>
+      </c>
+      <c r="J81">
+        <v>-0.3602331292372038</v>
+      </c>
+      <c r="K81">
+        <v>-0.1990249698885961</v>
+      </c>
+      <c r="L81">
+        <v>0.03579039341430786</v>
+      </c>
+      <c r="M81">
+        <v>0.02420034944771106</v>
+      </c>
+      <c r="N81">
+        <v>0.2122642819411736</v>
+      </c>
+      <c r="O81">
+        <v>0.5416191364627047</v>
+      </c>
+      <c r="P81">
+        <v>0.7264839512716087</v>
+      </c>
+      <c r="Q81">
+        <v>0.6554498242368758</v>
+      </c>
+      <c r="R81">
+        <v>0.6592012173526658</v>
+      </c>
+      <c r="S81">
+        <v>0.845488274465188</v>
+      </c>
+      <c r="T81">
+        <v>0.9143275886173367</v>
+      </c>
+      <c r="U81">
+        <v>0.6057750772214674</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82">
+        <v>3.291666666666667</v>
+      </c>
+      <c r="C82">
+        <v>-0.7240708271210401</v>
+      </c>
+      <c r="D82">
+        <v>-0.5879863972964787</v>
+      </c>
+      <c r="E82">
+        <v>-0.5712737832409549</v>
+      </c>
+      <c r="F82">
+        <v>-0.4742905729320594</v>
+      </c>
+      <c r="G82">
+        <v>-0.4904562095056773</v>
+      </c>
+      <c r="H82">
+        <v>-0.4213921492369316</v>
+      </c>
+      <c r="I82">
+        <v>-0.2509581762101094</v>
+      </c>
+      <c r="J82">
+        <v>-0.3773573090606192</v>
+      </c>
+      <c r="K82">
+        <v>-0.2393664636578206</v>
+      </c>
+      <c r="L82">
+        <v>0.04961134575750852</v>
+      </c>
+      <c r="M82">
+        <v>0.08285369339903502</v>
+      </c>
+      <c r="N82">
+        <v>0.1470864325662773</v>
+      </c>
+      <c r="O82">
+        <v>0.4203296247554342</v>
+      </c>
+      <c r="P82">
+        <v>0.7253545091172663</v>
+      </c>
+      <c r="Q82">
+        <v>0.651375384600418</v>
+      </c>
+      <c r="R82">
+        <v>0.551820010763999</v>
+      </c>
+      <c r="S82">
+        <v>0.5729962676223883</v>
+      </c>
+      <c r="T82">
+        <v>0.6219415753264932</v>
+      </c>
+      <c r="U82">
+        <v>0.444685911935673</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="C83">
+        <v>-0.8941520394561558</v>
+      </c>
+      <c r="D83">
+        <v>-0.7563450219122962</v>
+      </c>
+      <c r="E83">
+        <v>-0.7694971567057802</v>
+      </c>
+      <c r="F83">
+        <v>-0.4991047801153541</v>
+      </c>
+      <c r="G83">
+        <v>-0.4845509016403858</v>
+      </c>
+      <c r="H83">
+        <v>-0.4506799655043324</v>
+      </c>
+      <c r="I83">
+        <v>-0.2544311064416919</v>
+      </c>
+      <c r="J83">
+        <v>-0.325572117471309</v>
+      </c>
+      <c r="K83">
+        <v>-0.2395920629547197</v>
+      </c>
+      <c r="L83">
+        <v>0.0002687128156931944</v>
+      </c>
+      <c r="M83">
+        <v>0.151158441663913</v>
+      </c>
+      <c r="N83">
+        <v>0.1367698385754102</v>
+      </c>
+      <c r="O83">
+        <v>0.308898743424983</v>
+      </c>
+      <c r="P83">
+        <v>0.6297711002289299</v>
+      </c>
+      <c r="Q83">
+        <v>0.6425989261342998</v>
+      </c>
+      <c r="R83">
+        <v>0.4768921741313529</v>
+      </c>
+      <c r="S83">
+        <v>0.3093521061438292</v>
+      </c>
+      <c r="T83">
+        <v>0.2739111266192589</v>
+      </c>
+      <c r="U83">
+        <v>0.2174831510818654</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84">
+        <v>3.375</v>
+      </c>
+      <c r="C84">
+        <v>-1.100826910292355</v>
+      </c>
+      <c r="D84">
+        <v>-0.9612973050291973</v>
+      </c>
+      <c r="E84">
+        <v>-0.8939711421525803</v>
+      </c>
+      <c r="F84">
+        <v>-0.58713610359568</v>
+      </c>
+      <c r="G84">
+        <v>-0.4719848034592752</v>
+      </c>
+      <c r="H84">
+        <v>-0.4369734376135005</v>
+      </c>
+      <c r="I84">
+        <v>-0.3240408242658924</v>
+      </c>
+      <c r="J84">
+        <v>-0.2321188821114488</v>
+      </c>
+      <c r="K84">
+        <v>-0.1989684776099442</v>
+      </c>
+      <c r="L84">
+        <v>-0.06989094170867216</v>
+      </c>
+      <c r="M84">
+        <v>0.1792721133170831</v>
+      </c>
+      <c r="N84">
+        <v>0.1756006304918503</v>
+      </c>
+      <c r="O84">
+        <v>0.2370257299181164</v>
+      </c>
+      <c r="P84">
+        <v>0.4577510025188936</v>
+      </c>
+      <c r="Q84">
+        <v>0.5902757857615707</v>
+      </c>
+      <c r="R84">
+        <v>0.4032910857774576</v>
+      </c>
+      <c r="S84">
+        <v>0.08104698468426759</v>
+      </c>
+      <c r="T84">
+        <v>-0.07765406586726244</v>
+      </c>
+      <c r="U84">
+        <v>-0.04882276156906826</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="C85">
+        <v>-1.324096358090307</v>
+      </c>
+      <c r="D85">
+        <v>-1.182844165107851</v>
+      </c>
+      <c r="E85">
+        <v>-0.955878579759643</v>
+      </c>
+      <c r="F85">
+        <v>-0.7220936326705407</v>
+      </c>
+      <c r="G85">
+        <v>-0.4780148825144946</v>
+      </c>
+      <c r="H85">
+        <v>-0.4017205286122267</v>
+      </c>
+      <c r="I85">
+        <v>-0.3972227722921483</v>
+      </c>
+      <c r="J85">
+        <v>-0.1518228524846422</v>
+      </c>
+      <c r="K85">
+        <v>-0.1322139732855589</v>
+      </c>
+      <c r="L85">
+        <v>-0.1077812848743791</v>
+      </c>
+      <c r="M85">
+        <v>0.1449588384244339</v>
+      </c>
+      <c r="N85">
+        <v>0.232743177521196</v>
+      </c>
+      <c r="O85">
+        <v>0.2073893358282729</v>
+      </c>
+      <c r="P85">
+        <v>0.2651194380481441</v>
+      </c>
+      <c r="Q85">
+        <v>0.458604474020403</v>
+      </c>
+      <c r="R85">
+        <v>0.2971321362644115</v>
+      </c>
+      <c r="S85">
+        <v>-0.1039365446789341</v>
+      </c>
+      <c r="T85">
+        <v>-0.3798048392395776</v>
+      </c>
+      <c r="U85">
+        <v>-0.3082591297047406</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86">
+        <v>3.458333333333333</v>
+      </c>
+      <c r="C86">
+        <v>-1.523859060028197</v>
+      </c>
+      <c r="D86">
+        <v>-1.380884279326443</v>
+      </c>
+      <c r="E86">
+        <v>-1.014309195285247</v>
+      </c>
+      <c r="F86">
+        <v>-0.8526876157607107</v>
+      </c>
+      <c r="G86">
+        <v>-0.5248983918452614</v>
+      </c>
+      <c r="H86">
+        <v>-0.3829416302786882</v>
+      </c>
+      <c r="I86">
+        <v>-0.4074677233625429</v>
+      </c>
+      <c r="J86">
+        <v>-0.1270983536567901</v>
+      </c>
+      <c r="K86">
+        <v>-0.06246482179710109</v>
+      </c>
+      <c r="L86">
+        <v>-0.08592194052137897</v>
+      </c>
+      <c r="M86">
+        <v>0.07053289998080378</v>
+      </c>
+      <c r="N86">
+        <v>0.2629345801317182</v>
+      </c>
+      <c r="O86">
+        <v>0.200633209973687</v>
+      </c>
+      <c r="P86">
+        <v>0.1087457631010451</v>
+      </c>
+      <c r="Q86">
+        <v>0.2385811982953622</v>
+      </c>
+      <c r="R86">
+        <v>0.1319177276997993</v>
+      </c>
+      <c r="S86">
+        <v>-0.2553375001365168</v>
+      </c>
+      <c r="T86">
+        <v>-0.5919430260277727</v>
+      </c>
+      <c r="U86">
+        <v>-0.5057937393626439</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87">
+        <v>3.5</v>
+      </c>
+      <c r="C87">
+        <v>-1.665100098732954</v>
+      </c>
+      <c r="D87">
+        <v>-1.520402730311901</v>
+      </c>
+      <c r="E87">
+        <v>-1.123041110270851</v>
+      </c>
+      <c r="F87">
+        <v>-0.9393358848489447</v>
+      </c>
+      <c r="G87">
+        <v>-0.6172191947228529</v>
+      </c>
+      <c r="H87">
+        <v>-0.4046823351230187</v>
+      </c>
+      <c r="I87">
+        <v>-0.3385262346677456</v>
+      </c>
+      <c r="J87">
+        <v>-0.1553931803314729</v>
+      </c>
+      <c r="K87">
+        <v>-0.01331715825286426</v>
+      </c>
+      <c r="L87">
+        <v>-0.0166040015130513</v>
+      </c>
+      <c r="M87">
+        <v>0.007010013905250703</v>
+      </c>
+      <c r="N87">
+        <v>0.2302239928924897</v>
+      </c>
+      <c r="O87">
+        <v>0.1881439785651357</v>
+      </c>
+      <c r="P87">
+        <v>0.0104587785885037</v>
+      </c>
+      <c r="Q87">
+        <v>-0.03971465547728563</v>
+      </c>
+      <c r="R87">
+        <v>-0.1027646547435664</v>
+      </c>
+      <c r="S87">
+        <v>-0.3920894986528494</v>
+      </c>
+      <c r="T87">
+        <v>-0.6949387272165712</v>
+      </c>
+      <c r="U87">
+        <v>-0.5949751752226171</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88">
+        <v>3.541666666666667</v>
+      </c>
+      <c r="C88">
+        <v>-1.740439130925947</v>
+      </c>
+      <c r="D88">
+        <v>-1.594019174785596</v>
+      </c>
+      <c r="E88">
+        <v>-1.284284695105238</v>
+      </c>
+      <c r="F88">
+        <v>-0.9890873895096304</v>
+      </c>
+      <c r="G88">
+        <v>-0.7356143376329157</v>
+      </c>
+      <c r="H88">
+        <v>-0.4618387620639755</v>
+      </c>
+      <c r="I88">
+        <v>-0.2381194862845737</v>
+      </c>
+      <c r="J88">
+        <v>-0.1923504410147232</v>
+      </c>
+      <c r="K88">
+        <v>0.0006839555626104547</v>
+      </c>
+      <c r="L88">
+        <v>0.06131533373056858</v>
+      </c>
+      <c r="M88">
+        <v>-0.004053201774178884</v>
+      </c>
+      <c r="N88">
+        <v>0.1319202555521659</v>
+      </c>
+      <c r="O88">
+        <v>0.1429972813383942</v>
+      </c>
+      <c r="P88">
+        <v>-0.05366743606263603</v>
+      </c>
+      <c r="Q88">
+        <v>-0.3194982283434459</v>
+      </c>
+      <c r="R88">
+        <v>-0.3931237588354898</v>
+      </c>
+      <c r="S88">
+        <v>-0.5304910282064054</v>
+      </c>
+      <c r="T88">
+        <v>-0.6938581472085792</v>
+      </c>
+      <c r="U88">
+        <v>-0.5566667759172884</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="C89">
+        <v>-1.772565860473859</v>
+      </c>
+      <c r="D89">
+        <v>-1.62442331661421</v>
+      </c>
+      <c r="E89">
+        <v>-1.447475809179248</v>
+      </c>
+      <c r="F89">
+        <v>-1.047686427819101</v>
+      </c>
+      <c r="G89">
+        <v>-0.8471020683315411</v>
+      </c>
+      <c r="H89">
+        <v>-0.5299510329060894</v>
+      </c>
+      <c r="I89">
+        <v>-0.1811424769373619</v>
+      </c>
+      <c r="J89">
+        <v>-0.1901485364209488</v>
+      </c>
+      <c r="K89">
+        <v>-0.01717170811434499</v>
+      </c>
+      <c r="L89">
+        <v>0.1090069427546942</v>
+      </c>
+      <c r="M89">
+        <v>0.0377841150942217</v>
+      </c>
+      <c r="N89">
+        <v>0.003674406543483531</v>
+      </c>
+      <c r="O89">
+        <v>0.04687299066558159</v>
+      </c>
+      <c r="P89">
+        <v>-0.133579198564918</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5486927727746937</v>
+      </c>
+      <c r="R89">
+        <v>-0.6978877516351439</v>
+      </c>
+      <c r="S89">
+        <v>-0.6737121068763213</v>
+      </c>
+      <c r="T89">
+        <v>-0.6146698384939763</v>
+      </c>
+      <c r="U89">
+        <v>-0.4100523085055046</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90">
+        <v>3.625</v>
+      </c>
+      <c r="C90">
+        <v>-1.795637904597397</v>
+      </c>
+      <c r="D90">
+        <v>-1.64577277301845</v>
+      </c>
+      <c r="E90">
+        <v>-1.55233456992056</v>
+      </c>
+      <c r="F90">
+        <v>-1.155124262884472</v>
+      </c>
+      <c r="G90">
+        <v>-0.9272376378263922</v>
+      </c>
+      <c r="H90">
+        <v>-0.5882694720151666</v>
+      </c>
+      <c r="I90">
+        <v>-0.213271035226746</v>
+      </c>
+      <c r="J90">
+        <v>-0.1399723470754885</v>
+      </c>
+      <c r="K90">
+        <v>-0.04514680343258734</v>
+      </c>
+      <c r="L90">
+        <v>0.1083377273500755</v>
+      </c>
+      <c r="M90">
+        <v>0.09081611751040915</v>
+      </c>
+      <c r="N90">
+        <v>-0.103167094207106</v>
+      </c>
+      <c r="O90">
+        <v>-0.1042704921171551</v>
+      </c>
+      <c r="P90">
+        <v>-0.2713042386397698</v>
+      </c>
+      <c r="Q90">
+        <v>-0.7085812744835812</v>
+      </c>
+      <c r="R90">
+        <v>-0.9568460107529907</v>
+      </c>
+      <c r="S90">
+        <v>-0.806298166871407</v>
+      </c>
+      <c r="T90">
+        <v>-0.49673229559371</v>
+      </c>
+      <c r="U90">
+        <v>-0.2094873656888837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="C91">
+        <v>-1.831299267362362</v>
+      </c>
+      <c r="D91">
+        <v>-1.679711548064116</v>
+      </c>
+      <c r="E91">
+        <v>-1.578309807181521</v>
+      </c>
+      <c r="F91">
+        <v>-1.303813269275001</v>
+      </c>
+      <c r="G91">
+        <v>-0.9774145584534047</v>
+      </c>
+      <c r="H91">
+        <v>-0.635684418539793</v>
+      </c>
+      <c r="I91">
+        <v>-0.3202562101706718</v>
+      </c>
+      <c r="J91">
+        <v>-0.08256922634543683</v>
+      </c>
+      <c r="K91">
+        <v>-0.0564626218224388</v>
+      </c>
+      <c r="L91">
+        <v>0.0660092597259777</v>
+      </c>
+      <c r="M91">
+        <v>0.1008060975485382</v>
+      </c>
+      <c r="N91">
+        <v>-0.1592574214286118</v>
+      </c>
+      <c r="O91">
+        <v>-0.2957771815460398</v>
+      </c>
+      <c r="P91">
+        <v>-0.4758799114198666</v>
+      </c>
+      <c r="Q91">
+        <v>-0.8186951028870538</v>
+      </c>
+      <c r="R91">
+        <v>-1.11275142911986</v>
+      </c>
+      <c r="S91">
+        <v>-0.8967239416340754</v>
+      </c>
+      <c r="T91">
+        <v>-0.3826830637902649</v>
+      </c>
+      <c r="U91">
+        <v>-0.02688789688903747</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92">
+        <v>3.708333333333333</v>
+      </c>
+      <c r="C92">
+        <v>-1.877965266985989</v>
+      </c>
+      <c r="D92">
+        <v>-1.724654959968445</v>
+      </c>
+      <c r="E92">
+        <v>-1.558586108635979</v>
+      </c>
+      <c r="F92">
+        <v>-1.437575638534568</v>
+      </c>
+      <c r="G92">
+        <v>-1.021948270737059</v>
+      </c>
+      <c r="H92">
+        <v>-0.6880252845227368</v>
+      </c>
+      <c r="I92">
+        <v>-0.4452266747560609</v>
+      </c>
+      <c r="J92">
+        <v>-0.07713558419409998</v>
+      </c>
+      <c r="K92">
+        <v>-0.04154511335111748</v>
+      </c>
+      <c r="L92">
+        <v>0.003181471976582413</v>
+      </c>
+      <c r="M92">
+        <v>0.03768645742905753</v>
+      </c>
+      <c r="N92">
+        <v>-0.1822052522339166</v>
+      </c>
+      <c r="O92">
+        <v>-0.4965796123161688</v>
+      </c>
+      <c r="P92">
+        <v>-0.7200013538916509</v>
+      </c>
+      <c r="Q92">
+        <v>-0.9146519748752814</v>
+      </c>
+      <c r="R92">
+        <v>-1.137349422493803</v>
+      </c>
+      <c r="S92">
+        <v>-0.9096946042059678</v>
+      </c>
+      <c r="T92">
+        <v>-0.3070407635062278</v>
+      </c>
+      <c r="U92">
+        <v>0.0739671555940916</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93">
+        <v>3.75</v>
+      </c>
+      <c r="C93">
+        <v>-1.919651869452724</v>
+      </c>
+      <c r="D93">
+        <v>-1.764618974715882</v>
+      </c>
+      <c r="E93">
+        <v>-1.548561735633255</v>
+      </c>
+      <c r="F93">
+        <v>-1.494776644946861</v>
+      </c>
+      <c r="G93">
+        <v>-1.085480682534652</v>
+      </c>
+      <c r="H93">
+        <v>-0.7617538262593522</v>
+      </c>
+      <c r="I93">
+        <v>-0.5366247303500744</v>
+      </c>
+      <c r="J93">
+        <v>-0.1543789439105331</v>
+      </c>
+      <c r="K93">
+        <v>-0.02254638155711394</v>
+      </c>
+      <c r="L93">
+        <v>-0.06047822919263445</v>
+      </c>
+      <c r="M93">
+        <v>-0.08826870962404797</v>
+      </c>
+      <c r="N93">
+        <v>-0.2273777411958412</v>
+      </c>
+      <c r="O93">
+        <v>-0.672515174556542</v>
+      </c>
+      <c r="P93">
+        <v>-0.9550446150331623</v>
+      </c>
+      <c r="Q93">
+        <v>-1.01595757417648</v>
+      </c>
+      <c r="R93">
+        <v>-1.04580990632717</v>
+      </c>
+      <c r="S93">
+        <v>-0.8256620517549129</v>
+      </c>
+      <c r="T93">
+        <v>-0.2859070034751264</v>
+      </c>
+      <c r="U93">
+        <v>0.06106231127900905</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="C94">
+        <v>-1.94410256031822</v>
+      </c>
+      <c r="D94">
+        <v>-1.787347077862079</v>
+      </c>
+      <c r="E94">
+        <v>-1.578002311018188</v>
+      </c>
+      <c r="F94">
+        <v>-1.45995323793666</v>
+      </c>
+      <c r="G94">
+        <v>-1.168993745890817</v>
+      </c>
+      <c r="H94">
+        <v>-0.8587685096656641</v>
+      </c>
+      <c r="I94">
+        <v>-0.5863697073373842</v>
+      </c>
+      <c r="J94">
+        <v>-0.2934548845273507</v>
+      </c>
+      <c r="K94">
+        <v>-0.04489757817824082</v>
+      </c>
+      <c r="L94">
+        <v>-0.1197999858916789</v>
+      </c>
+      <c r="M94">
+        <v>-0.2407272626000554</v>
+      </c>
+      <c r="N94">
+        <v>-0.3484962839938615</v>
+      </c>
+      <c r="O94">
+        <v>-0.8053890458942361</v>
+      </c>
+      <c r="P94">
+        <v>-1.132039870439265</v>
+      </c>
+      <c r="Q94">
+        <v>-1.107603637424063</v>
+      </c>
+      <c r="R94">
+        <v>-0.889012008145482</v>
+      </c>
+      <c r="S94">
+        <v>-0.6586941405556386</v>
+      </c>
+      <c r="T94">
+        <v>-0.3119546503229663</v>
+      </c>
+      <c r="U94">
+        <v>-0.05368323723900831</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="C95">
+        <v>-1.953459476791399</v>
+      </c>
+      <c r="D95">
+        <v>-1.79498140661596</v>
+      </c>
+      <c r="E95">
+        <v>-1.628884285824054</v>
+      </c>
+      <c r="F95">
+        <v>-1.379475500543308</v>
+      </c>
+      <c r="G95">
+        <v>-1.24586614234754</v>
+      </c>
+      <c r="H95">
+        <v>-0.9636376623751188</v>
+      </c>
+      <c r="I95">
+        <v>-0.6291508391480258</v>
+      </c>
+      <c r="J95">
+        <v>-0.4420383453454551</v>
+      </c>
+      <c r="K95">
+        <v>-0.1476291813378631</v>
+      </c>
+      <c r="L95">
+        <v>-0.1890477752312122</v>
+      </c>
+      <c r="M95">
+        <v>-0.388080647515317</v>
+      </c>
+      <c r="N95">
+        <v>-0.5565058033905187</v>
+      </c>
+      <c r="O95">
+        <v>-0.9034216239376166</v>
+      </c>
+      <c r="P95">
+        <v>-1.218110674370608</v>
+      </c>
+      <c r="Q95">
+        <v>-1.148175225059381</v>
+      </c>
+      <c r="R95">
+        <v>-0.7274646979690407</v>
+      </c>
+      <c r="S95">
+        <v>-0.4603895104604889</v>
+      </c>
+      <c r="T95">
+        <v>-0.3586947796905366</v>
+      </c>
+      <c r="U95">
+        <v>-0.2186085063629956</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96">
+        <v>3.875</v>
+      </c>
+      <c r="C96">
+        <v>-1.959142519075825</v>
+      </c>
+      <c r="D96">
+        <v>-1.798941861181088</v>
+      </c>
+      <c r="E96">
+        <v>-1.656867993959631</v>
+      </c>
+      <c r="F96">
+        <v>-1.326658995633279</v>
+      </c>
+      <c r="G96">
+        <v>-1.283250279768479</v>
+      </c>
+      <c r="H96">
+        <v>-1.053485707014244</v>
+      </c>
+      <c r="I96">
+        <v>-0.7076030520284653</v>
+      </c>
+      <c r="J96">
+        <v>-0.5616189914446709</v>
+      </c>
+      <c r="K96">
+        <v>-0.333882882724558</v>
+      </c>
+      <c r="L96">
+        <v>-0.2965597307049814</v>
+      </c>
+      <c r="M96">
+        <v>-0.5258988636454601</v>
+      </c>
+      <c r="N96">
+        <v>-0.8080768229715214</v>
+      </c>
+      <c r="O96">
+        <v>-0.9915042344495408</v>
+      </c>
+      <c r="P96">
+        <v>-1.204741852949814</v>
+      </c>
+      <c r="Q96">
+        <v>-1.097901626240747</v>
+      </c>
+      <c r="R96">
+        <v>-0.6031614641799634</v>
+      </c>
+      <c r="S96">
+        <v>-0.3023106708967969</v>
+      </c>
+      <c r="T96">
+        <v>-0.3939140804583794</v>
+      </c>
+      <c r="U96">
+        <v>-0.3618217625576472</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97">
+        <v>3.916666666666667</v>
+      </c>
+      <c r="C97">
+        <v>-1.96768972611944</v>
+      </c>
+      <c r="D97">
+        <v>-1.805766480505405</v>
+      </c>
+      <c r="E97">
+        <v>-1.635334730793849</v>
+      </c>
+      <c r="F97">
+        <v>-1.344928164747435</v>
+      </c>
+      <c r="G97">
+        <v>-1.271563741952498</v>
+      </c>
+      <c r="H97">
+        <v>-1.112096646178229</v>
+      </c>
+      <c r="I97">
+        <v>-0.8350650956532256</v>
+      </c>
+      <c r="J97">
+        <v>-0.6586844469400219</v>
+      </c>
+      <c r="K97">
+        <v>-0.5667328461570235</v>
+      </c>
+      <c r="L97">
+        <v>-0.4700285777623956</v>
+      </c>
+      <c r="M97">
+        <v>-0.6753734682096891</v>
+      </c>
+      <c r="N97">
+        <v>-1.032807669846779</v>
+      </c>
+      <c r="O97">
+        <v>-1.085391823274549</v>
+      </c>
+      <c r="P97">
+        <v>-1.108325723515614</v>
+      </c>
+      <c r="Q97">
+        <v>-0.947356674581349</v>
+      </c>
+      <c r="R97">
+        <v>-0.5263258348582158</v>
+      </c>
+      <c r="S97">
+        <v>-0.2421223182258208</v>
+      </c>
+      <c r="T97">
+        <v>-0.3959517968710271</v>
+      </c>
+      <c r="U97">
+        <v>-0.4195327308516375</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98">
+        <v>3.958333333333333</v>
+      </c>
+      <c r="C98">
+        <v>-1.972337428453447</v>
+      </c>
+      <c r="D98">
+        <v>-1.808691595120113</v>
+      </c>
+      <c r="E98">
+        <v>-1.581593407991326</v>
+      </c>
+      <c r="F98">
+        <v>-1.416568922009279</v>
+      </c>
+      <c r="G98">
+        <v>-1.236265352744225</v>
+      </c>
+      <c r="H98">
+        <v>-1.139103753634332</v>
+      </c>
+      <c r="I98">
+        <v>-0.986334610792046</v>
+      </c>
+      <c r="J98">
+        <v>-0.77543563073221</v>
+      </c>
+      <c r="K98">
+        <v>-0.7966194386967209</v>
+      </c>
+      <c r="L98">
+        <v>-0.7184414400565217</v>
+      </c>
+      <c r="M98">
+        <v>-0.8617092387006154</v>
+      </c>
+      <c r="N98">
+        <v>-1.178362401446729</v>
+      </c>
+      <c r="O98">
+        <v>-1.169986139169015</v>
+      </c>
+      <c r="P98">
+        <v>-0.9634438779181701</v>
+      </c>
+      <c r="Q98">
+        <v>-0.729004972442441</v>
+      </c>
+      <c r="R98">
+        <v>-0.4824687670960742</v>
+      </c>
+      <c r="S98">
+        <v>-0.291400131229567</v>
+      </c>
+      <c r="T98">
+        <v>-0.363145293076365</v>
+      </c>
+      <c r="U98">
+        <v>-0.3629499462911625</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99">
         <v>4</v>
       </c>
-      <c r="C52">
-        <v>-1.862966557671024</v>
-      </c>
-      <c r="D52">
-        <v>-1.697598136618393</v>
-      </c>
-      <c r="E52">
-        <v>-1.542045742285451</v>
-      </c>
-      <c r="F52">
-        <v>-1.365052284791362</v>
-      </c>
-      <c r="G52">
-        <v>-1.225937272250519</v>
-      </c>
-      <c r="H52">
-        <v>-1.055059326159942</v>
-      </c>
-      <c r="I52">
-        <v>-0.9197458650951552</v>
-      </c>
-      <c r="J52">
-        <v>-0.7918477091690624</v>
-      </c>
-      <c r="K52">
-        <v>-0.9166923016689852</v>
-      </c>
-      <c r="L52">
-        <v>-1.523208663609229</v>
-      </c>
-      <c r="M52">
-        <v>-1.365260138513277</v>
-      </c>
-      <c r="N52">
-        <v>-0.8182287550431742</v>
-      </c>
-      <c r="O52">
-        <v>-0.8407477335412469</v>
-      </c>
-      <c r="P52">
-        <v>-0.7644899075712484</v>
-      </c>
-      <c r="Q52">
-        <v>-0.5415127023390135</v>
-      </c>
-      <c r="R52">
-        <v>-0.6213868525024473</v>
-      </c>
-      <c r="S52">
-        <v>-0.2994886889300488</v>
-      </c>
-      <c r="T52">
-        <v>-0.3377216670274652</v>
-      </c>
-      <c r="U52">
-        <v>-0.09361654179874454</v>
-      </c>
-      <c r="V52">
+      <c r="C99">
+        <v>-1.959133257005039</v>
+      </c>
+      <c r="D99">
+        <v>-1.793764835952408</v>
+      </c>
+      <c r="E99">
+        <v>-1.541873780056284</v>
+      </c>
+      <c r="F99">
+        <v>-1.482585779799273</v>
+      </c>
+      <c r="G99">
+        <v>-1.220333658197075</v>
+      </c>
+      <c r="H99">
+        <v>-1.150240955562816</v>
+      </c>
+      <c r="I99">
+        <v>-1.121091346076119</v>
+      </c>
+      <c r="J99">
+        <v>-0.9493685801002124</v>
+      </c>
+      <c r="K99">
+        <v>-0.9995183784337123</v>
+      </c>
+      <c r="L99">
+        <v>-1.021330758228888</v>
+      </c>
+      <c r="M99">
+        <v>-1.09031510561358</v>
+      </c>
+      <c r="N99">
+        <v>-1.239617720003601</v>
+      </c>
+      <c r="O99">
+        <v>-1.202495304842905</v>
+      </c>
+      <c r="P99">
+        <v>-0.8097138596591994</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5058160404782118</v>
+      </c>
+      <c r="R99">
+        <v>-0.4509309860697344</v>
+      </c>
+      <c r="S99">
+        <v>-0.4056501321016589</v>
+      </c>
+      <c r="T99">
+        <v>-0.3103026882817911</v>
+      </c>
+      <c r="U99">
+        <v>-0.2124811961742541</v>
+      </c>
+      <c r="V99">
         <v>0</v>
       </c>
     </row>
